--- a/dataWrangling/Ridership_Total&Lookup.xlsx
+++ b/dataWrangling/Ridership_Total&Lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-30100" yWindow="-2860" windowWidth="28820" windowHeight="19240" activeTab="6"/>
+    <workbookView xWindow="29520" yWindow="5500" windowWidth="28800" windowHeight="16500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Weekday OD" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
     <sheet name="TOTALS" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Saturday OD'!$A$1:$AT$47</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="192">
   <si>
     <t>Exit stations</t>
   </si>
@@ -544,6 +545,9 @@
     <t>Diff</t>
   </si>
   <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
     <t>stations</t>
   </si>
   <si>
@@ -593,6 +597,18 @@
   </si>
   <si>
     <t>nov</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Stattion</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Abbr</t>
   </si>
 </sst>
 </file>
@@ -685,7 +701,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -763,8 +779,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -802,9 +846,10 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="105">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -843,6 +888,20 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -880,6 +939,20 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -23636,7 +23709,7 @@
   <dimension ref="A2:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M45"/>
+      <selection activeCell="K2" sqref="K2:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -32610,10 +32683,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AU40"/>
+  <dimension ref="A2:AU43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:AU7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -32623,12 +32696,12 @@
   <sheetData>
     <row r="2" spans="1:47" ht="16">
       <c r="A2" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:47">
       <c r="B4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -32763,15 +32836,15 @@
         <v>62</v>
       </c>
       <c r="AU4" s="11" t="s">
-        <v>37</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="14">
         <v>3755.3333333333335</v>
@@ -32911,7 +32984,7 @@
     </row>
     <row r="6" spans="1:47">
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="14">
         <v>2097.5</v>
@@ -33051,7 +33124,7 @@
     </row>
     <row r="7" spans="1:47">
       <c r="B7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7" s="14">
         <v>1455.25</v>
@@ -33191,316 +33264,856 @@
     </row>
     <row r="8" spans="1:47">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4009.1052631578959</v>
+      </c>
+      <c r="D8" s="14">
+        <v>8094.9473684210516</v>
+      </c>
+      <c r="E8" s="14">
+        <v>4706.3684210526299</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4427</v>
+      </c>
+      <c r="G8" s="14">
+        <v>13230.684210526324</v>
+      </c>
+      <c r="H8" s="14">
+        <v>5399.4736842105249</v>
+      </c>
+      <c r="I8" s="14">
+        <v>9070.0000000000018</v>
+      </c>
+      <c r="J8" s="14">
+        <v>12027.894736842107</v>
+      </c>
+      <c r="K8" s="14">
+        <v>13388.05263157895</v>
+      </c>
+      <c r="L8" s="14">
+        <v>6657.6315789473665</v>
+      </c>
+      <c r="M8" s="14">
+        <v>8105.7894736842118</v>
+      </c>
+      <c r="N8" s="14">
+        <v>6729.3157894736823</v>
+      </c>
+      <c r="O8" s="14">
+        <v>5653.2631578947376</v>
+      </c>
+      <c r="P8" s="14">
+        <v>5845.9473684210543</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>5391.0526315789484</v>
+      </c>
+      <c r="R8" s="14">
+        <v>3465.8947368421059</v>
+      </c>
+      <c r="S8" s="14">
+        <v>4515.7894736842127</v>
+      </c>
+      <c r="T8" s="14">
+        <v>8144.5263157894724</v>
+      </c>
+      <c r="U8" s="14">
+        <v>5869.2631578947367</v>
+      </c>
+      <c r="V8" s="14">
+        <v>6847.3684210526335</v>
+      </c>
+      <c r="W8" s="14">
+        <v>6432.4210526315774</v>
+      </c>
+      <c r="X8" s="14">
+        <v>3531.3684210526321</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>2756.2631578947367</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>5407.7368421052633</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>6324.8421052631593</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>35937.789473684214</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>37466.84210526316</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>31342.368421052637</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>22965.210526315786</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>12048.105263157897</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>13500.63157894737</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>8028.4210526315783</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>13939.947368421053</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>9751.157894736838</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>4385.1052631578941</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>2741.4736842105276</v>
+      </c>
+      <c r="AM8" s="14">
+        <v>6884.0000000000009</v>
+      </c>
+      <c r="AN8" s="14">
+        <v>2614.5789473684213</v>
+      </c>
+      <c r="AO8" s="14">
+        <v>5462.5789473684217</v>
+      </c>
+      <c r="AP8" s="14">
+        <v>3320.9473684210529</v>
+      </c>
+      <c r="AQ8" s="14">
+        <v>3516.947368421052</v>
+      </c>
+      <c r="AR8" s="14">
+        <v>5558.0526315789475</v>
+      </c>
+      <c r="AS8" s="14">
+        <v>6294.3157894736842</v>
+      </c>
+      <c r="AT8" s="14">
+        <v>2901.2631578947367</v>
+      </c>
+      <c r="AU8" s="14">
+        <v>394691.73684210522</v>
+      </c>
     </row>
     <row r="9" spans="1:47">
       <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="11"/>
+        <v>174</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2227.25</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3847.75</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2708.5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2756.25</v>
+      </c>
+      <c r="G9" s="14">
+        <v>8812.25</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3339.5</v>
+      </c>
+      <c r="I9" s="14">
+        <v>4933.25</v>
+      </c>
+      <c r="J9" s="14">
+        <v>4074.25</v>
+      </c>
+      <c r="K9" s="14">
+        <v>5047.5</v>
+      </c>
+      <c r="L9" s="14">
+        <v>3045</v>
+      </c>
+      <c r="M9" s="14">
+        <v>4980.25</v>
+      </c>
+      <c r="N9" s="14">
+        <v>5362.25</v>
+      </c>
+      <c r="O9" s="14">
+        <v>2680.25</v>
+      </c>
+      <c r="P9" s="14">
+        <v>3365</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>2530.25</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1508.25</v>
+      </c>
+      <c r="S9" s="14">
+        <v>1916.75</v>
+      </c>
+      <c r="T9" s="14">
+        <v>3464.5</v>
+      </c>
+      <c r="U9" s="14">
+        <v>2516.5</v>
+      </c>
+      <c r="V9" s="14">
+        <v>2293.5</v>
+      </c>
+      <c r="W9" s="14">
+        <v>3037.75</v>
+      </c>
+      <c r="X9" s="14">
+        <v>1633</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>1292.5</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>3422</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>3995.5</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>11527.25</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>11359</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>29231.5</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>11329.25</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>8786.75</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>8673.5</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>4368.75</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>7346.25</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>4882.75</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>1740.25</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>1470.75</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>3533.5</v>
+      </c>
+      <c r="AN9" s="14">
+        <v>822.5</v>
+      </c>
+      <c r="AO9" s="14">
+        <v>2704.75</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>1345.25</v>
+      </c>
+      <c r="AQ9" s="14">
+        <v>1876.75</v>
+      </c>
+      <c r="AR9" s="14">
+        <v>4600</v>
+      </c>
+      <c r="AS9" s="14">
+        <v>3519.75</v>
+      </c>
+      <c r="AT9" s="14">
+        <v>1410.5</v>
+      </c>
+      <c r="AU9" s="14">
+        <v>205318.75</v>
+      </c>
     </row>
     <row r="10" spans="1:47">
       <c r="B10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1604.75</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2303.5</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1626</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1924</v>
+      </c>
+      <c r="G10" s="14">
+        <v>5496.25</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2353.5</v>
+      </c>
+      <c r="I10" s="14">
+        <v>3357.25</v>
+      </c>
+      <c r="J10" s="14">
+        <v>2699.25</v>
+      </c>
+      <c r="K10" s="14">
+        <v>3380.75</v>
+      </c>
+      <c r="L10" s="14">
+        <v>2571</v>
+      </c>
+      <c r="M10" s="14">
+        <v>3389.5</v>
+      </c>
+      <c r="N10" s="14">
+        <v>2614.5</v>
+      </c>
+      <c r="O10" s="14">
+        <v>1714</v>
+      </c>
+      <c r="P10" s="14">
+        <v>2241</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1502.25</v>
+      </c>
+      <c r="R10" s="14">
+        <v>879.5</v>
+      </c>
+      <c r="S10" s="14">
+        <v>1176.25</v>
+      </c>
+      <c r="T10" s="14">
+        <v>2174.25</v>
+      </c>
+      <c r="U10" s="14">
+        <v>1659</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1365.5</v>
+      </c>
+      <c r="W10" s="14">
+        <v>2008</v>
+      </c>
+      <c r="X10" s="14">
+        <v>1002.25</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>752.5</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>2204</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>2691.25</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>7437</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>5903.5</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>19287.25</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>8822.5</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>6489.75</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>5996.75</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>2947.5</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>4984.5</v>
+      </c>
+      <c r="AJ10" s="14">
+        <v>3059.75</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>1158.25</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>888.25</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>2017.25</v>
+      </c>
+      <c r="AN10" s="14">
+        <v>455.5</v>
+      </c>
+      <c r="AO10" s="14">
+        <v>1767.5</v>
+      </c>
+      <c r="AP10" s="14">
+        <v>811.75</v>
+      </c>
+      <c r="AQ10" s="14">
+        <v>1263</v>
+      </c>
+      <c r="AR10" s="14">
+        <v>5107.5</v>
+      </c>
+      <c r="AS10" s="14">
+        <v>2241</v>
+      </c>
+      <c r="AT10" s="14">
+        <v>878.25</v>
+      </c>
+      <c r="AU10" s="14">
+        <v>136206.75</v>
+      </c>
     </row>
     <row r="11" spans="1:47">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="C11" s="14">
+        <v>3930.4285714285725</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8046.5714285714275</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4718.1904761904752</v>
+      </c>
+      <c r="F11" s="14">
+        <v>4504.8571428571431</v>
+      </c>
+      <c r="G11" s="14">
+        <v>12835.523809523807</v>
+      </c>
+      <c r="H11" s="14">
+        <v>5363.333333333333</v>
+      </c>
+      <c r="I11" s="14">
+        <v>9015.1904761904716</v>
+      </c>
+      <c r="J11" s="14">
+        <v>11817.857142857143</v>
+      </c>
+      <c r="K11" s="14">
+        <v>13245.428571428572</v>
+      </c>
+      <c r="L11" s="14">
+        <v>6355.476190476189</v>
+      </c>
+      <c r="M11" s="14">
+        <v>8106.4761904761908</v>
+      </c>
+      <c r="N11" s="14">
+        <v>7100.4285714285743</v>
+      </c>
+      <c r="O11" s="14">
+        <v>5648.5714285714312</v>
+      </c>
+      <c r="P11" s="14">
+        <v>5857.5238095238101</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>5206.6190476190468</v>
+      </c>
+      <c r="R11" s="14">
+        <v>3437.8095238095248</v>
+      </c>
+      <c r="S11" s="14">
+        <v>4538.4285714285725</v>
+      </c>
+      <c r="T11" s="14">
+        <v>8170.4285714285716</v>
+      </c>
+      <c r="U11" s="14">
+        <v>5884.1904761904761</v>
+      </c>
+      <c r="V11" s="14">
+        <v>6824.7142857142871</v>
+      </c>
+      <c r="W11" s="14">
+        <v>6498.7619047619055</v>
+      </c>
+      <c r="X11" s="14">
+        <v>3589.9523809523803</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>2756.571428571428</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>5449.8095238095257</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>6373.4761904761926</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>36966.666666666672</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>37412.809523809519</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>31628.904761904767</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>22664.666666666664</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>12080.61904761905</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>13416.380952380954</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>7923.4761904761908</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>13203.380952380952</v>
+      </c>
+      <c r="AJ11" s="14">
+        <v>9295.5238095238092</v>
+      </c>
+      <c r="AK11" s="14">
+        <v>4382.6190476190468</v>
+      </c>
+      <c r="AL11" s="14">
+        <v>2804.0952380952385</v>
+      </c>
+      <c r="AM11" s="14">
+        <v>6994.4761904761908</v>
+      </c>
+      <c r="AN11" s="14">
+        <v>2591.5714285714289</v>
+      </c>
+      <c r="AO11" s="14">
+        <v>5505.1428571428569</v>
+      </c>
+      <c r="AP11" s="14">
+        <v>3325.333333333333</v>
+      </c>
+      <c r="AQ11" s="14">
+        <v>3540.3333333333339</v>
+      </c>
+      <c r="AR11" s="14">
+        <v>6034.8095238095229</v>
+      </c>
+      <c r="AS11" s="14">
+        <v>6414.0952380952403</v>
+      </c>
+      <c r="AT11" s="14">
+        <v>2918.8571428571431</v>
+      </c>
+      <c r="AU11" s="14">
+        <v>394380.38095238089</v>
+      </c>
     </row>
     <row r="12" spans="1:47">
       <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="11"/>
+        <v>174</v>
+      </c>
+      <c r="C12" s="14">
+        <v>2270.5999999999995</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3882.3999999999983</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2514.6000000000004</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2626.8</v>
+      </c>
+      <c r="G12" s="14">
+        <v>8749</v>
+      </c>
+      <c r="H12" s="14">
+        <v>3310.4000000000005</v>
+      </c>
+      <c r="I12" s="14">
+        <v>4851.4000000000005</v>
+      </c>
+      <c r="J12" s="14">
+        <v>4505.2</v>
+      </c>
+      <c r="K12" s="14">
+        <v>5060.4000000000005</v>
+      </c>
+      <c r="L12" s="14">
+        <v>2937.6</v>
+      </c>
+      <c r="M12" s="14">
+        <v>5018.4000000000005</v>
+      </c>
+      <c r="N12" s="14">
+        <v>6523.4000000000005</v>
+      </c>
+      <c r="O12" s="14">
+        <v>2635.5999999999995</v>
+      </c>
+      <c r="P12" s="14">
+        <v>3381.5999999999985</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>2323.8000000000006</v>
+      </c>
+      <c r="R12" s="14">
+        <v>1396.9999999999998</v>
+      </c>
+      <c r="S12" s="14">
+        <v>1778.8000000000002</v>
+      </c>
+      <c r="T12" s="14">
+        <v>3316.3999999999992</v>
+      </c>
+      <c r="U12" s="14">
+        <v>2415.7999999999997</v>
+      </c>
+      <c r="V12" s="14">
+        <v>2202.9999999999995</v>
+      </c>
+      <c r="W12" s="14">
+        <v>3046.6000000000013</v>
+      </c>
+      <c r="X12" s="14">
+        <v>1583.8</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>1220.2</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>3345.8</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>3782.7999999999993</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>10926.800000000001</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>8900.1999999999989</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>27303.000000000004</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>11987.200000000003</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>8978</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>8699.1999999999989</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>4313.6000000000004</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>7256.8</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>4777.2</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>1705.4</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>1413.3999999999999</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>3315.6000000000008</v>
+      </c>
+      <c r="AN12" s="14">
+        <v>747.20000000000027</v>
+      </c>
+      <c r="AO12" s="14">
+        <v>2498.7999999999997</v>
+      </c>
+      <c r="AP12" s="14">
+        <v>1279.7999999999997</v>
+      </c>
+      <c r="AQ12" s="14">
+        <v>1882.1999999999996</v>
+      </c>
+      <c r="AR12" s="14">
+        <v>5090</v>
+      </c>
+      <c r="AS12" s="14">
+        <v>3349.4</v>
+      </c>
+      <c r="AT12" s="14">
+        <v>1307.8000000000002</v>
+      </c>
+      <c r="AU12" s="14">
+        <v>200412.99999999997</v>
+      </c>
     </row>
     <row r="13" spans="1:47">
       <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1588.2000000000003</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2252.1999999999994</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1626.4000000000003</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1926.2</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5012.6000000000022</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2308.0000000000005</v>
+      </c>
+      <c r="I13" s="14">
+        <v>3348.8000000000006</v>
+      </c>
+      <c r="J13" s="14">
+        <v>3163.4</v>
+      </c>
+      <c r="K13" s="14">
+        <v>3364.7999999999993</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2396</v>
+      </c>
+      <c r="M13" s="14">
+        <v>3490.8000000000015</v>
+      </c>
+      <c r="N13" s="14">
+        <v>3572.6</v>
+      </c>
+      <c r="O13" s="14">
+        <v>1718.6</v>
+      </c>
+      <c r="P13" s="14">
+        <v>2215.6000000000004</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>1472.6000000000006</v>
+      </c>
+      <c r="R13" s="14">
+        <v>888.2</v>
+      </c>
+      <c r="S13" s="14">
+        <v>1175.6000000000004</v>
+      </c>
+      <c r="T13" s="14">
+        <v>2159.9999999999995</v>
+      </c>
+      <c r="U13" s="14">
+        <v>1587.4000000000003</v>
+      </c>
+      <c r="V13" s="14">
+        <v>1325.0000000000002</v>
+      </c>
+      <c r="W13" s="14">
+        <v>1979.6000000000001</v>
+      </c>
+      <c r="X13" s="14">
+        <v>1018.6</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>760</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>2209.0000000000005</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>2684.2</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>8089.2</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>5643.1999999999989</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>18397.599999999995</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>7849.9999999999991</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>6196.0000000000009</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>5791.2000000000016</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>2823.8</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>4779.6000000000004</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>3034.6000000000004</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>1180.8</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>903</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>2031.2000000000003</v>
+      </c>
+      <c r="AN13" s="14">
+        <v>490.39999999999986</v>
+      </c>
+      <c r="AO13" s="14">
+        <v>1785.8</v>
+      </c>
+      <c r="AP13" s="14">
+        <v>818.2</v>
+      </c>
+      <c r="AQ13" s="14">
+        <v>1248.2</v>
+      </c>
+      <c r="AR13" s="14">
+        <v>6032.0000000000009</v>
+      </c>
+      <c r="AS13" s="14">
+        <v>2123.6</v>
+      </c>
+      <c r="AT13" s="14">
+        <v>856.4</v>
+      </c>
+      <c r="AU13" s="14">
+        <v>135319.19999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:47">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="14">
         <v>3979.7727272727275</v>
@@ -33640,7 +34253,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="B15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="14">
         <v>2260</v>
@@ -33780,286 +34393,5335 @@
     </row>
     <row r="16" spans="1:47">
       <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="28">
+        <v>1643</v>
+      </c>
+      <c r="D16" s="28">
+        <v>2512</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1804</v>
+      </c>
+      <c r="F16" s="28">
+        <v>2043</v>
+      </c>
+      <c r="G16" s="28">
+        <v>5156</v>
+      </c>
+      <c r="H16" s="28">
+        <v>2397</v>
+      </c>
+      <c r="I16" s="28">
+        <v>3438</v>
+      </c>
+      <c r="J16" s="28">
+        <v>2811</v>
+      </c>
+      <c r="K16" s="28">
+        <v>3414</v>
+      </c>
+      <c r="L16" s="28">
+        <v>2614</v>
+      </c>
+      <c r="M16" s="28">
+        <v>3528</v>
+      </c>
+      <c r="N16" s="28">
+        <v>6657</v>
+      </c>
+      <c r="O16" s="28">
+        <v>1903</v>
+      </c>
+      <c r="P16" s="28">
+        <v>2432</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>1582</v>
+      </c>
+      <c r="R16" s="28">
+        <v>965</v>
+      </c>
+      <c r="S16" s="28">
+        <v>1303</v>
+      </c>
+      <c r="T16" s="28">
+        <v>2611</v>
+      </c>
+      <c r="U16" s="28">
+        <v>1749</v>
+      </c>
+      <c r="V16" s="28">
+        <v>1606</v>
+      </c>
+      <c r="W16" s="28">
+        <v>2185</v>
+      </c>
+      <c r="X16" s="28">
+        <v>1183</v>
+      </c>
+      <c r="Y16" s="28">
+        <v>917</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>2316</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>2814</v>
+      </c>
+      <c r="AB16" s="28">
+        <v>9165</v>
+      </c>
+      <c r="AC16" s="28">
+        <v>6917</v>
+      </c>
+      <c r="AD16" s="28">
+        <v>19961</v>
+      </c>
+      <c r="AE16" s="28">
+        <v>8894</v>
+      </c>
+      <c r="AF16" s="28">
+        <v>6481</v>
+      </c>
+      <c r="AG16" s="28">
+        <v>6255</v>
+      </c>
+      <c r="AH16" s="28">
+        <v>3169</v>
+      </c>
+      <c r="AI16" s="28">
+        <v>4988</v>
+      </c>
+      <c r="AJ16" s="28">
+        <v>3274</v>
+      </c>
+      <c r="AK16" s="28">
+        <v>1219</v>
+      </c>
+      <c r="AL16" s="28">
+        <v>1068</v>
+      </c>
+      <c r="AM16" s="28">
+        <v>2835</v>
+      </c>
+      <c r="AN16" s="28">
+        <v>581</v>
+      </c>
+      <c r="AO16" s="28">
+        <v>1921</v>
+      </c>
+      <c r="AP16" s="28">
+        <v>877</v>
+      </c>
+      <c r="AQ16" s="28">
+        <v>1305</v>
+      </c>
+      <c r="AR16" s="28">
+        <v>5479</v>
+      </c>
+      <c r="AS16" s="28">
+        <v>2154</v>
+      </c>
+      <c r="AT16" s="28">
+        <v>1096</v>
+      </c>
+      <c r="AU16" s="28">
+        <v>149216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="14">
+        <v>4027.045454545454</v>
+      </c>
+      <c r="D17" s="14">
+        <v>8055.8636363636369</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4736.136363636364</v>
+      </c>
+      <c r="F17" s="14">
+        <v>4507.7727272727279</v>
+      </c>
+      <c r="G17" s="14">
+        <v>12418.77272727273</v>
+      </c>
+      <c r="H17" s="14">
+        <v>5381.9545454545469</v>
+      </c>
+      <c r="I17" s="14">
+        <v>9005.9545454545423</v>
+      </c>
+      <c r="J17" s="14">
+        <v>11735.954545454548</v>
+      </c>
+      <c r="K17" s="14">
+        <v>13050.772727272726</v>
+      </c>
+      <c r="L17" s="14">
+        <v>6407.8636363636369</v>
+      </c>
+      <c r="M17" s="14">
+        <v>8215.9090909090919</v>
+      </c>
+      <c r="N17" s="14">
+        <v>7711.5909090909099</v>
+      </c>
+      <c r="O17" s="14">
+        <v>5680.1363636363631</v>
+      </c>
+      <c r="P17" s="14">
+        <v>5851.590909090909</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>5294.1363636363612</v>
+      </c>
+      <c r="R17" s="14">
+        <v>3379.318181818182</v>
+      </c>
+      <c r="S17" s="14">
+        <v>4633.590909090909</v>
+      </c>
+      <c r="T17" s="14">
+        <v>8230.4999999999982</v>
+      </c>
+      <c r="U17" s="14">
+        <v>5944.636363636364</v>
+      </c>
+      <c r="V17" s="14">
+        <v>6817.3181818181811</v>
+      </c>
+      <c r="W17" s="14">
+        <v>6472.863636363636</v>
+      </c>
+      <c r="X17" s="14">
+        <v>3618.0909090909081</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>2833.5454545454545</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>5503.4090909090919</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>6456.7272727272712</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>37673.13636363636</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>37380.954545454559</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>32045.227272727268</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>22732.545454545463</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>12139.727272727274</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>13340.40909090909</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>8029.0454545454531</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>12960.181818181818</v>
+      </c>
+      <c r="AJ17" s="14">
+        <v>9198.045454545454</v>
+      </c>
+      <c r="AK17" s="14">
+        <v>4401.545454545455</v>
+      </c>
+      <c r="AL17" s="14">
+        <v>2854.272727272727</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>7295.545454545455</v>
+      </c>
+      <c r="AN17" s="14">
+        <v>2666.954545454546</v>
+      </c>
+      <c r="AO17" s="14">
+        <v>5582.363636363636</v>
+      </c>
+      <c r="AP17" s="14">
+        <v>3311.7727272727275</v>
+      </c>
+      <c r="AQ17" s="14">
+        <v>3512.727272727273</v>
+      </c>
+      <c r="AR17" s="14">
+        <v>6851.1363636363631</v>
+      </c>
+      <c r="AS17" s="14">
+        <v>6307.181818181818</v>
+      </c>
+      <c r="AT17" s="14">
+        <v>3141.545454545455</v>
+      </c>
+      <c r="AU17" s="14">
+        <v>397395.77272727276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="B18" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="27">
-        <v>1643</v>
-      </c>
-      <c r="D16" s="27">
-        <v>2512</v>
-      </c>
-      <c r="E16" s="27">
-        <v>1804</v>
-      </c>
-      <c r="F16" s="27">
-        <v>2043</v>
-      </c>
-      <c r="G16" s="27">
-        <v>5156</v>
-      </c>
-      <c r="H16" s="27">
+      <c r="C18" s="14">
+        <v>2289.25</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4043</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2578.5</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2879.5</v>
+      </c>
+      <c r="G18" s="14">
+        <v>8482.75</v>
+      </c>
+      <c r="H18" s="14">
+        <v>3381.25</v>
+      </c>
+      <c r="I18" s="14">
+        <v>4973.75</v>
+      </c>
+      <c r="J18" s="14">
+        <v>4412.5</v>
+      </c>
+      <c r="K18" s="14">
+        <v>5029.75</v>
+      </c>
+      <c r="L18" s="14">
+        <v>2994.5</v>
+      </c>
+      <c r="M18" s="14">
+        <v>5039.75</v>
+      </c>
+      <c r="N18" s="14">
+        <v>4776</v>
+      </c>
+      <c r="O18" s="14">
+        <v>2713.25</v>
+      </c>
+      <c r="P18" s="14">
+        <v>3348.5</v>
+      </c>
+      <c r="Q18" s="14">
         <v>2397</v>
       </c>
-      <c r="I16" s="27">
-        <v>3438</v>
-      </c>
-      <c r="J16" s="27">
-        <v>2811</v>
-      </c>
-      <c r="K16" s="27">
-        <v>3414</v>
-      </c>
-      <c r="L16" s="27">
-        <v>2614</v>
-      </c>
-      <c r="M16" s="27">
-        <v>3528</v>
-      </c>
-      <c r="N16" s="27">
-        <v>6657</v>
-      </c>
-      <c r="O16" s="27">
-        <v>1903</v>
-      </c>
-      <c r="P16" s="27">
-        <v>2432</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>1582</v>
-      </c>
-      <c r="R16" s="27">
-        <v>965</v>
-      </c>
-      <c r="S16" s="27">
-        <v>1303</v>
-      </c>
-      <c r="T16" s="27">
-        <v>2611</v>
-      </c>
-      <c r="U16" s="27">
-        <v>1749</v>
-      </c>
-      <c r="V16" s="27">
-        <v>1606</v>
-      </c>
-      <c r="W16" s="27">
-        <v>2185</v>
-      </c>
-      <c r="X16" s="27">
-        <v>1183</v>
-      </c>
-      <c r="Y16" s="27">
-        <v>917</v>
-      </c>
-      <c r="Z16" s="27">
-        <v>2316</v>
-      </c>
-      <c r="AA16" s="27">
-        <v>2814</v>
-      </c>
-      <c r="AB16" s="27">
-        <v>9165</v>
-      </c>
-      <c r="AC16" s="27">
-        <v>6917</v>
-      </c>
-      <c r="AD16" s="27">
-        <v>19961</v>
-      </c>
-      <c r="AE16" s="27">
-        <v>8894</v>
-      </c>
-      <c r="AF16" s="27">
-        <v>6481</v>
-      </c>
-      <c r="AG16" s="27">
-        <v>6255</v>
-      </c>
-      <c r="AH16" s="27">
-        <v>3169</v>
-      </c>
-      <c r="AI16" s="27">
-        <v>4988</v>
-      </c>
-      <c r="AJ16" s="27">
-        <v>3274</v>
-      </c>
-      <c r="AK16" s="27">
-        <v>1219</v>
-      </c>
-      <c r="AL16" s="27">
-        <v>1068</v>
-      </c>
-      <c r="AM16" s="27">
-        <v>2835</v>
-      </c>
-      <c r="AN16" s="27">
-        <v>581</v>
-      </c>
-      <c r="AO16" s="27">
-        <v>1921</v>
-      </c>
-      <c r="AP16" s="27">
-        <v>877</v>
-      </c>
-      <c r="AQ16" s="27">
-        <v>1305</v>
-      </c>
-      <c r="AR16" s="27">
-        <v>5479</v>
-      </c>
-      <c r="AS16" s="27">
-        <v>2154</v>
-      </c>
-      <c r="AT16" s="27">
-        <v>1096</v>
-      </c>
-      <c r="AU16" s="27">
-        <v>149216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="R18" s="14">
+        <v>1384.75</v>
+      </c>
+      <c r="S18" s="14">
+        <v>1811.25</v>
+      </c>
+      <c r="T18" s="14">
+        <v>3308.25</v>
+      </c>
+      <c r="U18" s="14">
+        <v>2486.75</v>
+      </c>
+      <c r="V18" s="14">
+        <v>2379.75</v>
+      </c>
+      <c r="W18" s="14">
+        <v>3135.5</v>
+      </c>
+      <c r="X18" s="14">
+        <v>1669.5</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>1327.25</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>3349.75</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>4016</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>13709.5</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>9052.25</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>26991.5</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>11480.5</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>9504.5</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>8855</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>4337</v>
+      </c>
+      <c r="AI18" s="14">
+        <v>7310</v>
+      </c>
+      <c r="AJ18" s="14">
+        <v>4873.5</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>1664.25</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>1461</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>3713.75</v>
+      </c>
+      <c r="AN18" s="14">
+        <v>767.5</v>
+      </c>
+      <c r="AO18" s="14">
+        <v>2515.25</v>
+      </c>
+      <c r="AP18" s="14">
+        <v>1304.5</v>
+      </c>
+      <c r="AQ18" s="14">
+        <v>1774.25</v>
+      </c>
+      <c r="AR18" s="14">
+        <v>5883.75</v>
+      </c>
+      <c r="AS18" s="14">
+        <v>3368</v>
+      </c>
+      <c r="AT18" s="14">
+        <v>1460</v>
+      </c>
+      <c r="AU18" s="14">
+        <v>204234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1690</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2746.5</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1835.25</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2228</v>
+      </c>
+      <c r="G19" s="14">
+        <v>5372.75</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2466</v>
+      </c>
+      <c r="I19" s="14">
+        <v>3664.75</v>
+      </c>
+      <c r="J19" s="14">
+        <v>3019.75</v>
+      </c>
+      <c r="K19" s="14">
+        <v>3371.25</v>
+      </c>
+      <c r="L19" s="14">
+        <v>2660.5</v>
+      </c>
+      <c r="M19" s="14">
+        <v>3722</v>
+      </c>
+      <c r="N19" s="14">
+        <v>5472.5</v>
+      </c>
+      <c r="O19" s="14">
+        <v>2019.75</v>
+      </c>
+      <c r="P19" s="14">
+        <v>2546.25</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1680.25</v>
+      </c>
+      <c r="R19" s="14">
+        <v>987.25</v>
+      </c>
+      <c r="S19" s="14">
+        <v>1404.75</v>
+      </c>
+      <c r="T19" s="14">
+        <v>2706.5</v>
+      </c>
+      <c r="U19" s="14">
+        <v>1922.75</v>
+      </c>
+      <c r="V19" s="14">
+        <v>1786.75</v>
+      </c>
+      <c r="W19" s="14">
+        <v>2531.25</v>
+      </c>
+      <c r="X19" s="14">
+        <v>1318.25</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>1044.5</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>2628.5</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>3244.5</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>11512.25</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>6719.5</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>20830.75</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>10321.75</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>8470</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>7811.5</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>3359.25</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>5341.75</v>
+      </c>
+      <c r="AJ19" s="14">
+        <v>3733.5</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>1343</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>1090</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>3078.75</v>
+      </c>
+      <c r="AN19" s="14">
+        <v>647.5</v>
+      </c>
+      <c r="AO19" s="14">
+        <v>2071.25</v>
+      </c>
+      <c r="AP19" s="14">
+        <v>996.5</v>
+      </c>
+      <c r="AQ19" s="14">
+        <v>1439</v>
+      </c>
+      <c r="AR19" s="14">
+        <v>6148.25</v>
+      </c>
+      <c r="AS19" s="14">
+        <v>2848</v>
+      </c>
+      <c r="AT19" s="14">
+        <v>1137.75</v>
+      </c>
+      <c r="AU19" s="14">
+        <v>162970.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="14">
+        <v>3883.6499999999987</v>
+      </c>
+      <c r="D20" s="14">
+        <v>8017.75</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4618.1000000000004</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4479.1500000000005</v>
+      </c>
+      <c r="G20" s="14">
+        <v>12796.099999999999</v>
+      </c>
+      <c r="H20" s="14">
+        <v>5424.050000000002</v>
+      </c>
+      <c r="I20" s="14">
+        <v>8954.4999999999982</v>
+      </c>
+      <c r="J20" s="14">
+        <v>11492.849999999999</v>
+      </c>
+      <c r="K20" s="14">
+        <v>13295.700000000003</v>
+      </c>
+      <c r="L20" s="14">
+        <v>6167.300000000002</v>
+      </c>
+      <c r="M20" s="14">
+        <v>8032.7499999999991</v>
+      </c>
+      <c r="N20" s="14">
+        <v>7636.7499999999991</v>
+      </c>
+      <c r="O20" s="14">
+        <v>5630.5499999999993</v>
+      </c>
+      <c r="P20" s="14">
+        <v>5806.9500000000016</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>5040.3500000000004</v>
+      </c>
+      <c r="R20" s="14">
+        <v>3298.7999999999993</v>
+      </c>
+      <c r="S20" s="14">
+        <v>4620.1000000000004</v>
+      </c>
+      <c r="T20" s="14">
+        <v>8290.9999999999982</v>
+      </c>
+      <c r="U20" s="14">
+        <v>5919.6999999999989</v>
+      </c>
+      <c r="V20" s="14">
+        <v>6826.5</v>
+      </c>
+      <c r="W20" s="14">
+        <v>6644.2500000000009</v>
+      </c>
+      <c r="X20" s="14">
+        <v>3654.0000000000009</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>2847.9000000000005</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>5620.5</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>6393.6</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>39069.05000000001</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>37460.500000000007</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>32492.15</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>22340.249999999996</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>12195.15</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>13088.000000000004</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>7966.5999999999995</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>11828.300000000001</v>
+      </c>
+      <c r="AJ20" s="14">
+        <v>8042.9000000000015</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>4366.7</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>2847.95</v>
+      </c>
+      <c r="AM20" s="14">
+        <v>7434.5000000000009</v>
+      </c>
+      <c r="AN20" s="14">
+        <v>2705.25</v>
+      </c>
+      <c r="AO20" s="14">
+        <v>5614.4499999999989</v>
+      </c>
+      <c r="AP20" s="14">
+        <v>3300.95</v>
+      </c>
+      <c r="AQ20" s="14">
+        <v>3542.3499999999995</v>
+      </c>
+      <c r="AR20" s="14">
+        <v>6993.9</v>
+      </c>
+      <c r="AS20" s="14">
+        <v>6501.1</v>
+      </c>
+      <c r="AT20" s="14">
+        <v>3231.3999999999996</v>
+      </c>
+      <c r="AU20" s="14">
+        <v>396414.29999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2312.4000000000005</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4100.5999999999995</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2513.7999999999997</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2828.2000000000003</v>
+      </c>
+      <c r="G21" s="14">
+        <v>8846.4000000000015</v>
+      </c>
+      <c r="H21" s="14">
+        <v>3516.5999999999995</v>
+      </c>
+      <c r="I21" s="14">
+        <v>5203.4000000000015</v>
+      </c>
+      <c r="J21" s="14">
+        <v>4088.6000000000004</v>
+      </c>
+      <c r="K21" s="14">
+        <v>4794.4000000000015</v>
+      </c>
+      <c r="L21" s="14">
+        <v>3101.599999999999</v>
+      </c>
+      <c r="M21" s="14">
+        <v>5058.8</v>
+      </c>
+      <c r="N21" s="14">
+        <v>6760</v>
+      </c>
+      <c r="O21" s="14">
+        <v>2732.3999999999996</v>
+      </c>
+      <c r="P21" s="14">
+        <v>3438.5999999999995</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>2372.5999999999995</v>
+      </c>
+      <c r="R21" s="14">
+        <v>1478.1999999999996</v>
+      </c>
+      <c r="S21" s="14">
+        <v>1842.0000000000002</v>
+      </c>
+      <c r="T21" s="14">
+        <v>3578.4</v>
+      </c>
+      <c r="U21" s="14">
+        <v>2559.3999999999992</v>
+      </c>
+      <c r="V21" s="14">
+        <v>2326.1999999999998</v>
+      </c>
+      <c r="W21" s="14">
+        <v>3084</v>
+      </c>
+      <c r="X21" s="14">
+        <v>1602.6000000000001</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>1243.8</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>3381.2000000000007</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>4256.4000000000015</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>13081.599999999997</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>8774.2000000000007</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>27240.999999999993</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>12717.400000000001</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>10653.800000000005</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>8654.4</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>4239.4000000000005</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>6909.2</v>
+      </c>
+      <c r="AJ21" s="14">
+        <v>4653.1999999999989</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>1750.6000000000001</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>1461.0000000000002</v>
+      </c>
+      <c r="AM21" s="14">
+        <v>3776.2000000000003</v>
+      </c>
+      <c r="AN21" s="14">
+        <v>821.60000000000025</v>
+      </c>
+      <c r="AO21" s="14">
+        <v>2654.4000000000005</v>
+      </c>
+      <c r="AP21" s="14">
+        <v>1272.2</v>
+      </c>
+      <c r="AQ21" s="14">
+        <v>1831.8</v>
+      </c>
+      <c r="AR21" s="14">
+        <v>6182.1999999999989</v>
+      </c>
+      <c r="AS21" s="14">
+        <v>3521.0000000000005</v>
+      </c>
+      <c r="AT21" s="14">
+        <v>1491.4000000000005</v>
+      </c>
+      <c r="AU21" s="14">
+        <v>208707.20000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1819.5999999999997</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2960.599999999999</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2000.5999999999992</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2364.8000000000006</v>
+      </c>
+      <c r="G22" s="14">
+        <v>5806.2000000000007</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2693.8</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3991.0000000000005</v>
+      </c>
+      <c r="J22" s="14">
+        <v>3139.6</v>
+      </c>
+      <c r="K22" s="14">
+        <v>3445.7999999999997</v>
+      </c>
+      <c r="L22" s="14">
+        <v>2874.2</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3928.6</v>
+      </c>
+      <c r="N22" s="14">
+        <v>6238.5999999999985</v>
+      </c>
+      <c r="O22" s="14">
+        <v>2127.8000000000002</v>
+      </c>
+      <c r="P22" s="14">
+        <v>2659.2000000000003</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>1776.6</v>
+      </c>
+      <c r="R22" s="14">
+        <v>1072.5999999999999</v>
+      </c>
+      <c r="S22" s="14">
+        <v>1477.0000000000002</v>
+      </c>
+      <c r="T22" s="14">
+        <v>3053.5999999999995</v>
+      </c>
+      <c r="U22" s="14">
+        <v>2092.5999999999995</v>
+      </c>
+      <c r="V22" s="14">
+        <v>1820.6000000000004</v>
+      </c>
+      <c r="W22" s="14">
+        <v>2552.4000000000005</v>
+      </c>
+      <c r="X22" s="14">
+        <v>1338.0000000000002</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>1074.1999999999998</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>2789</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>3513.2</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>10933.000000000002</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>6674.2000000000007</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>23113.399999999998</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>16482.8</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>7348.7999999999993</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>6743.6000000000013</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>3488.4</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>5199.3999999999996</v>
+      </c>
+      <c r="AJ22" s="14">
+        <v>3840.4</v>
+      </c>
+      <c r="AK22" s="14">
+        <v>1389</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>1182.6000000000001</v>
+      </c>
+      <c r="AM22" s="14">
+        <v>3273.9999999999995</v>
+      </c>
+      <c r="AN22" s="14">
+        <v>719.19999999999993</v>
+      </c>
+      <c r="AO22" s="14">
+        <v>2307</v>
+      </c>
+      <c r="AP22" s="14">
+        <v>1030.6000000000001</v>
+      </c>
+      <c r="AQ22" s="14">
+        <v>1514.7999999999997</v>
+      </c>
+      <c r="AR22" s="14">
+        <v>6854.0000000000009</v>
+      </c>
+      <c r="AS22" s="14">
+        <v>3331.4000000000005</v>
+      </c>
+      <c r="AT22" s="14">
+        <v>1213.7999999999993</v>
+      </c>
+      <c r="AU22" s="14">
+        <v>175250.60000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3080.3636363636365</v>
+      </c>
+      <c r="D23" s="14">
+        <v>6407.0000000000009</v>
+      </c>
+      <c r="E23" s="14">
+        <v>3614.5</v>
+      </c>
+      <c r="F23" s="14">
+        <v>3505.5909090909081</v>
+      </c>
+      <c r="G23" s="14">
+        <v>11208.68181818182</v>
+      </c>
+      <c r="H23" s="14">
+        <v>4265.545454545455</v>
+      </c>
+      <c r="I23" s="14">
+        <v>7082.7272727272739</v>
+      </c>
+      <c r="J23" s="14">
+        <v>9098.6818181818162</v>
+      </c>
+      <c r="K23" s="14">
+        <v>10639.636363636366</v>
+      </c>
+      <c r="L23" s="14">
+        <v>4964.4090909090892</v>
+      </c>
+      <c r="M23" s="14">
+        <v>6317.681818181818</v>
+      </c>
+      <c r="N23" s="14">
+        <v>6007.2272727272748</v>
+      </c>
+      <c r="O23" s="14">
+        <v>4480.4545454545441</v>
+      </c>
+      <c r="P23" s="14">
+        <v>4625.3181818181811</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>3947.909090909091</v>
+      </c>
+      <c r="R23" s="14">
+        <v>2638.8636363636379</v>
+      </c>
+      <c r="S23" s="14">
+        <v>3729.8636363636356</v>
+      </c>
+      <c r="T23" s="14">
+        <v>6852.0454545454531</v>
+      </c>
+      <c r="U23" s="14">
+        <v>4787.0000000000018</v>
+      </c>
+      <c r="V23" s="14">
+        <v>5614.909090909091</v>
+      </c>
+      <c r="W23" s="14">
+        <v>5527.136363636364</v>
+      </c>
+      <c r="X23" s="14">
+        <v>3041.7727272727275</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>2331.1818181818189</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>4532.4545454545469</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>5058.5</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>32618.454545454555</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>30878.18181818182</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>26548.454545454544</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>18001.31818181818</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>9583.2272727272702</v>
+      </c>
+      <c r="AG23" s="14">
+        <v>10177.31818181818</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>6368.227272727273</v>
+      </c>
+      <c r="AI23" s="14">
+        <v>9194.4090909090919</v>
+      </c>
+      <c r="AJ23" s="14">
+        <v>6581.1363636363612</v>
+      </c>
+      <c r="AK23" s="14">
+        <v>3553.4090909090914</v>
+      </c>
+      <c r="AL23" s="14">
+        <v>2290.454545454546</v>
+      </c>
+      <c r="AM23" s="14">
+        <v>6216.9090909090901</v>
+      </c>
+      <c r="AN23" s="14">
+        <v>2176.4999999999995</v>
+      </c>
+      <c r="AO23" s="14">
+        <v>4598.318181818182</v>
+      </c>
+      <c r="AP23" s="14">
+        <v>2647.5909090909099</v>
+      </c>
+      <c r="AQ23" s="14">
+        <v>2851.4999999999991</v>
+      </c>
+      <c r="AR23" s="14">
+        <v>5801.7727272727261</v>
+      </c>
+      <c r="AS23" s="14">
+        <v>5231.272727272727</v>
+      </c>
+      <c r="AT23" s="14">
+        <v>2704.1363636363631</v>
+      </c>
+      <c r="AU23" s="14">
+        <v>321382.04545454535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="14">
+        <v>2007.25</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3587.5</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2233.5</v>
+      </c>
+      <c r="F24" s="14">
+        <v>2396.75</v>
+      </c>
+      <c r="G24" s="14">
+        <v>8150</v>
+      </c>
+      <c r="H24" s="14">
+        <v>3053</v>
+      </c>
+      <c r="I24" s="14">
+        <v>4482</v>
+      </c>
+      <c r="J24" s="14">
+        <v>3789.5</v>
+      </c>
+      <c r="K24" s="14">
+        <v>4552.75</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2681.25</v>
+      </c>
+      <c r="M24" s="14">
+        <v>4476.75</v>
+      </c>
+      <c r="N24" s="14">
+        <v>6373.25</v>
+      </c>
+      <c r="O24" s="14">
+        <v>2448</v>
+      </c>
+      <c r="P24" s="14">
+        <v>3029.5</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>2098.25</v>
+      </c>
+      <c r="R24" s="14">
+        <v>1283.5</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1621.25</v>
+      </c>
+      <c r="T24" s="14">
+        <v>3317</v>
+      </c>
+      <c r="U24" s="14">
+        <v>2309</v>
+      </c>
+      <c r="V24" s="14">
+        <v>2191.25</v>
+      </c>
+      <c r="W24" s="14">
+        <v>2964</v>
+      </c>
+      <c r="X24" s="14">
+        <v>1487.75</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>1212.5</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>3067.75</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>3501.5</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>14362.5</v>
+      </c>
+      <c r="AC24" s="14">
+        <v>8589.5</v>
+      </c>
+      <c r="AD24" s="14">
+        <v>25483</v>
+      </c>
+      <c r="AE24" s="14">
+        <v>9254</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>7754</v>
+      </c>
+      <c r="AG24" s="14">
+        <v>7763.5</v>
+      </c>
+      <c r="AH24" s="14">
+        <v>3886</v>
+      </c>
+      <c r="AI24" s="14">
+        <v>6293.25</v>
+      </c>
+      <c r="AJ24" s="14">
+        <v>4152.5</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>1574</v>
+      </c>
+      <c r="AL24" s="14">
+        <v>1268</v>
+      </c>
+      <c r="AM24" s="14">
+        <v>3936.5</v>
+      </c>
+      <c r="AN24" s="14">
+        <v>685.25</v>
+      </c>
+      <c r="AO24" s="14">
+        <v>2379</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>1178.75</v>
+      </c>
+      <c r="AQ24" s="14">
+        <v>1687.75</v>
+      </c>
+      <c r="AR24" s="14">
+        <v>5565.75</v>
+      </c>
+      <c r="AS24" s="14">
+        <v>3127.75</v>
+      </c>
+      <c r="AT24" s="14">
+        <v>1480</v>
+      </c>
+      <c r="AU24" s="14">
+        <v>188735.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1618.5</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2382.25</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1652.75</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1776</v>
+      </c>
+      <c r="G25" s="14">
+        <v>5398.75</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2210.5</v>
+      </c>
+      <c r="I25" s="14">
+        <v>3365.5</v>
+      </c>
+      <c r="J25" s="14">
+        <v>2771.25</v>
+      </c>
+      <c r="K25" s="14">
+        <v>3159</v>
+      </c>
+      <c r="L25" s="14">
+        <v>2412.75</v>
+      </c>
+      <c r="M25" s="14">
+        <v>3286.25</v>
+      </c>
+      <c r="N25" s="14">
+        <v>5903.25</v>
+      </c>
+      <c r="O25" s="14">
+        <v>1743.25</v>
+      </c>
+      <c r="P25" s="14">
+        <v>2216.5</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>1446.5</v>
+      </c>
+      <c r="R25" s="14">
+        <v>866.5</v>
+      </c>
+      <c r="S25" s="14">
+        <v>1184.25</v>
+      </c>
+      <c r="T25" s="14">
+        <v>2474</v>
+      </c>
+      <c r="U25" s="14">
+        <v>1699.5</v>
+      </c>
+      <c r="V25" s="14">
+        <v>1578.5</v>
+      </c>
+      <c r="W25" s="14">
+        <v>2235.25</v>
+      </c>
+      <c r="X25" s="14">
+        <v>1154.25</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>936</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>2263.25</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>2670</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>10849.5</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>6118</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>19327.25</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>7591.5</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>5875</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>5530.25</v>
+      </c>
+      <c r="AH25" s="14">
+        <v>2871</v>
+      </c>
+      <c r="AI25" s="14">
+        <v>4603</v>
+      </c>
+      <c r="AJ25" s="14">
+        <v>2906</v>
+      </c>
+      <c r="AK25" s="14">
+        <v>1139.25</v>
+      </c>
+      <c r="AL25" s="14">
+        <v>993.25</v>
+      </c>
+      <c r="AM25" s="14">
+        <v>3029.25</v>
+      </c>
+      <c r="AN25" s="14">
+        <v>532.25</v>
+      </c>
+      <c r="AO25" s="14">
+        <v>1892.25</v>
+      </c>
+      <c r="AP25" s="14">
+        <v>817.5</v>
+      </c>
+      <c r="AQ25" s="14">
+        <v>1223.75</v>
+      </c>
+      <c r="AR25" s="14">
+        <v>6347.25</v>
+      </c>
+      <c r="AS25" s="14">
+        <v>2266.5</v>
+      </c>
+      <c r="AT25" s="14">
+        <v>1155</v>
+      </c>
+      <c r="AU25" s="14">
+        <v>143472.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="14">
+        <v>3992.3636363636356</v>
+      </c>
+      <c r="D26" s="14">
+        <v>8297.2272727272739</v>
+      </c>
+      <c r="E26" s="14">
+        <v>4602.8181818181811</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4492.2272727272739</v>
+      </c>
+      <c r="G26" s="14">
+        <v>12972.863636363634</v>
+      </c>
+      <c r="H26" s="14">
+        <v>5402.1818181818171</v>
+      </c>
+      <c r="I26" s="14">
+        <v>9108.9090909090919</v>
+      </c>
+      <c r="J26" s="14">
+        <v>11362.818181818182</v>
+      </c>
+      <c r="K26" s="14">
+        <v>13031.090909090912</v>
+      </c>
+      <c r="L26" s="14">
+        <v>6407.2727272727261</v>
+      </c>
+      <c r="M26" s="14">
+        <v>8044.6363636363658</v>
+      </c>
+      <c r="N26" s="14">
+        <v>8201.6363636363658</v>
+      </c>
+      <c r="O26" s="14">
+        <v>5569.0000000000018</v>
+      </c>
+      <c r="P26" s="14">
+        <v>5809.5909090909063</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>4871.5</v>
+      </c>
+      <c r="R26" s="14">
+        <v>3247.545454545455</v>
+      </c>
+      <c r="S26" s="14">
+        <v>4500.5909090909072</v>
+      </c>
+      <c r="T26" s="14">
+        <v>8211.7727272727279</v>
+      </c>
+      <c r="U26" s="14">
+        <v>5936.545454545455</v>
+      </c>
+      <c r="V26" s="14">
+        <v>6820.5</v>
+      </c>
+      <c r="W26" s="14">
+        <v>6638.818181818182</v>
+      </c>
+      <c r="X26" s="14">
+        <v>3645.0909090909086</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>2818.2272727272725</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>5681.045454545454</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>6536.1363636363649</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>38867.727272727272</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>37369.136363636368</v>
+      </c>
+      <c r="AD26" s="14">
+        <v>33112.181818181816</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>22692.727272727279</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>12124.36363636364</v>
+      </c>
+      <c r="AG26" s="14">
+        <v>13055.59090909091</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>7960.409090909091</v>
+      </c>
+      <c r="AI26" s="14">
+        <v>12377.272727272724</v>
+      </c>
+      <c r="AJ26" s="14">
+        <v>8617.045454545454</v>
+      </c>
+      <c r="AK26" s="14">
+        <v>4427.1818181818189</v>
+      </c>
+      <c r="AL26" s="14">
+        <v>2773.7727272727275</v>
+      </c>
+      <c r="AM26" s="14">
+        <v>7481.9545454545478</v>
+      </c>
+      <c r="AN26" s="14">
+        <v>2668.0454545454554</v>
+      </c>
+      <c r="AO26" s="14">
+        <v>5633.0454545454531</v>
+      </c>
+      <c r="AP26" s="14">
+        <v>3314.9545454545464</v>
+      </c>
+      <c r="AQ26" s="14">
+        <v>3491.818181818182</v>
+      </c>
+      <c r="AR26" s="14">
+        <v>7812.7727272727279</v>
+      </c>
+      <c r="AS26" s="14">
+        <v>6491.045454545454</v>
+      </c>
+      <c r="AT26" s="14">
+        <v>3238.954545454546</v>
+      </c>
+      <c r="AU26" s="14">
+        <v>399712.40909090906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="B27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2573.1999999999994</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4534.4000000000005</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2653.6000000000004</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2981</v>
+      </c>
+      <c r="G27" s="14">
+        <v>11044.199999999999</v>
+      </c>
+      <c r="H27" s="14">
+        <v>3517.4</v>
+      </c>
+      <c r="I27" s="14">
+        <v>5418.0000000000009</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4100</v>
+      </c>
+      <c r="K27" s="14">
+        <v>5747.3999999999987</v>
+      </c>
+      <c r="L27" s="14">
+        <v>3199.3999999999992</v>
+      </c>
+      <c r="M27" s="14">
+        <v>5198.4000000000005</v>
+      </c>
+      <c r="N27" s="14">
+        <v>7061</v>
+      </c>
+      <c r="O27" s="14">
+        <v>2771.0000000000005</v>
+      </c>
+      <c r="P27" s="14">
+        <v>3527.3999999999992</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>2297.5999999999995</v>
+      </c>
+      <c r="R27" s="14">
+        <v>1415.2000000000003</v>
+      </c>
+      <c r="S27" s="14">
+        <v>1893.8000000000004</v>
+      </c>
+      <c r="T27" s="14">
+        <v>3765.8</v>
+      </c>
+      <c r="U27" s="14">
+        <v>2732.8</v>
+      </c>
+      <c r="V27" s="14">
+        <v>2554.599999999999</v>
+      </c>
+      <c r="W27" s="14">
+        <v>3575.599999999999</v>
+      </c>
+      <c r="X27" s="14">
+        <v>1877.8</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>1420.3999999999999</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>3830.1999999999994</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>4419.7999999999984</v>
+      </c>
+      <c r="AB27" s="14">
+        <v>15941</v>
+      </c>
+      <c r="AC27" s="14">
+        <v>9470.5999999999985</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>29234.200000000004</v>
+      </c>
+      <c r="AE27" s="14">
+        <v>11738.799999999997</v>
+      </c>
+      <c r="AF27" s="14">
+        <v>9127.3999999999978</v>
+      </c>
+      <c r="AG27" s="14">
+        <v>9631</v>
+      </c>
+      <c r="AH27" s="14">
+        <v>4496.6000000000013</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>6971.4</v>
+      </c>
+      <c r="AJ27" s="14">
+        <v>4986.4000000000005</v>
+      </c>
+      <c r="AK27" s="14">
+        <v>1778.3999999999994</v>
+      </c>
+      <c r="AL27" s="14">
+        <v>1532.6</v>
+      </c>
+      <c r="AM27" s="14">
+        <v>4177.9999999999991</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>862.00000000000011</v>
+      </c>
+      <c r="AO27" s="14">
+        <v>2713.3999999999996</v>
+      </c>
+      <c r="AP27" s="14">
+        <v>1357.4000000000003</v>
+      </c>
+      <c r="AQ27" s="14">
+        <v>1911.6000000000001</v>
+      </c>
+      <c r="AR27" s="14">
+        <v>6842.4000000000005</v>
+      </c>
+      <c r="AS27" s="14">
+        <v>3666</v>
+      </c>
+      <c r="AT27" s="14">
+        <v>1690.9999999999998</v>
+      </c>
+      <c r="AU27" s="14">
+        <v>222240.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1632.25</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2595</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1785.25</v>
+      </c>
+      <c r="F28" s="14">
+        <v>2049</v>
+      </c>
+      <c r="G28" s="14">
+        <v>5777</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2465</v>
+      </c>
+      <c r="I28" s="14">
+        <v>3492.5</v>
+      </c>
+      <c r="J28" s="14">
+        <v>2787</v>
+      </c>
+      <c r="K28" s="14">
+        <v>3928.5</v>
+      </c>
+      <c r="L28" s="14">
+        <v>2631.75</v>
+      </c>
+      <c r="M28" s="14">
+        <v>3627.5</v>
+      </c>
+      <c r="N28" s="14">
+        <v>5659.75</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1941</v>
+      </c>
+      <c r="P28" s="14">
+        <v>2404.75</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>1555</v>
+      </c>
+      <c r="R28" s="14">
+        <v>963.75</v>
+      </c>
+      <c r="S28" s="14">
+        <v>1267.5</v>
+      </c>
+      <c r="T28" s="14">
+        <v>2620.25</v>
+      </c>
+      <c r="U28" s="14">
+        <v>1888.75</v>
+      </c>
+      <c r="V28" s="14">
+        <v>1710</v>
+      </c>
+      <c r="W28" s="14">
+        <v>2342.25</v>
+      </c>
+      <c r="X28" s="14">
+        <v>1237.75</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>946</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>2447</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>2968</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>11404.5</v>
+      </c>
+      <c r="AC28" s="14">
+        <v>6238.25</v>
+      </c>
+      <c r="AD28" s="14">
+        <v>20360</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>8846.75</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>6126.75</v>
+      </c>
+      <c r="AG28" s="14">
+        <v>5777.5</v>
+      </c>
+      <c r="AH28" s="14">
+        <v>2993</v>
+      </c>
+      <c r="AI28" s="14">
+        <v>5035.25</v>
+      </c>
+      <c r="AJ28" s="14">
+        <v>3155</v>
+      </c>
+      <c r="AK28" s="14">
+        <v>1285.75</v>
+      </c>
+      <c r="AL28" s="14">
+        <v>1068.75</v>
+      </c>
+      <c r="AM28" s="14">
+        <v>2949.5</v>
+      </c>
+      <c r="AN28" s="14">
+        <v>586.75</v>
+      </c>
+      <c r="AO28" s="14">
+        <v>1970.5</v>
+      </c>
+      <c r="AP28" s="14">
+        <v>858.75</v>
+      </c>
+      <c r="AQ28" s="14">
+        <v>1349.5</v>
+      </c>
+      <c r="AR28" s="14">
+        <v>7215</v>
+      </c>
+      <c r="AS28" s="14">
+        <v>2521.25</v>
+      </c>
+      <c r="AT28" s="14">
+        <v>1171.25</v>
+      </c>
+      <c r="AU28" s="14">
+        <v>153636.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="14">
+        <v>4258.55</v>
+      </c>
+      <c r="D29" s="14">
+        <v>8620.1500000000033</v>
+      </c>
+      <c r="E29" s="14">
+        <v>4906.55</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4756.7000000000007</v>
+      </c>
+      <c r="G29" s="14">
+        <v>13529.250000000005</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5694.8500000000013</v>
+      </c>
+      <c r="I29" s="14">
+        <v>9268.65</v>
+      </c>
+      <c r="J29" s="14">
+        <v>11958.45</v>
+      </c>
+      <c r="K29" s="14">
+        <v>13491.300000000007</v>
+      </c>
+      <c r="L29" s="14">
+        <v>7028.4499999999971</v>
+      </c>
+      <c r="M29" s="14">
+        <v>8576.4000000000015</v>
+      </c>
+      <c r="N29" s="14">
+        <v>7989.8500000000013</v>
+      </c>
+      <c r="O29" s="14">
+        <v>5968.8</v>
+      </c>
+      <c r="P29" s="14">
+        <v>6133.1999999999989</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>5254.550000000002</v>
+      </c>
+      <c r="R29" s="14">
+        <v>3457.75</v>
+      </c>
+      <c r="S29" s="14">
+        <v>4835.8000000000011</v>
+      </c>
+      <c r="T29" s="14">
+        <v>8613.9499999999935</v>
+      </c>
+      <c r="U29" s="14">
+        <v>6290.2999999999993</v>
+      </c>
+      <c r="V29" s="14">
+        <v>7175.5500000000011</v>
+      </c>
+      <c r="W29" s="14">
+        <v>6808.45</v>
+      </c>
+      <c r="X29" s="14">
+        <v>3766.1499999999996</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>2965.1</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>5734.2999999999993</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>6728.0999999999995</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>39343.350000000013</v>
+      </c>
+      <c r="AC29" s="14">
+        <v>39247.649999999994</v>
+      </c>
+      <c r="AD29" s="14">
+        <v>32760.349999999995</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>23616.399999999998</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>12273.149999999998</v>
+      </c>
+      <c r="AG29" s="14">
+        <v>13502.5</v>
+      </c>
+      <c r="AH29" s="14">
+        <v>8184.4499999999989</v>
+      </c>
+      <c r="AI29" s="14">
+        <v>13669.3</v>
+      </c>
+      <c r="AJ29" s="14">
+        <v>10545.500000000002</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>4698.0499999999984</v>
+      </c>
+      <c r="AL29" s="14">
+        <v>2935.35</v>
+      </c>
+      <c r="AM29" s="14">
+        <v>7511.8000000000011</v>
+      </c>
+      <c r="AN29" s="14">
+        <v>2898.9500000000003</v>
+      </c>
+      <c r="AO29" s="14">
+        <v>5983.85</v>
+      </c>
+      <c r="AP29" s="14">
+        <v>3495</v>
+      </c>
+      <c r="AQ29" s="14">
+        <v>3592.1</v>
+      </c>
+      <c r="AR29" s="14">
+        <v>7492.9499999999989</v>
+      </c>
+      <c r="AS29" s="14">
+        <v>6843.0999999999995</v>
+      </c>
+      <c r="AT29" s="14">
+        <v>3398.1999999999989</v>
+      </c>
+      <c r="AU29" s="14">
+        <v>415803.15000000008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2339</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4340</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2710.75</v>
+      </c>
+      <c r="F30" s="14">
+        <v>2840.5</v>
+      </c>
+      <c r="G30" s="14">
+        <v>12846</v>
+      </c>
+      <c r="H30" s="14">
+        <v>3380.75</v>
+      </c>
+      <c r="I30" s="14">
+        <v>5032.5</v>
+      </c>
+      <c r="J30" s="14">
+        <v>4209.75</v>
+      </c>
+      <c r="K30" s="14">
+        <v>5302</v>
+      </c>
+      <c r="L30" s="14">
+        <v>3153.25</v>
+      </c>
+      <c r="M30" s="14">
+        <v>4997.5</v>
+      </c>
+      <c r="N30" s="14">
+        <v>5764.5</v>
+      </c>
+      <c r="O30" s="14">
+        <v>2722.25</v>
+      </c>
+      <c r="P30" s="14">
+        <v>3370.5</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>2334.25</v>
+      </c>
+      <c r="R30" s="14">
+        <v>1411.25</v>
+      </c>
+      <c r="S30" s="14">
+        <v>1843.75</v>
+      </c>
+      <c r="T30" s="14">
+        <v>3603.5</v>
+      </c>
+      <c r="U30" s="14">
+        <v>2552</v>
+      </c>
+      <c r="V30" s="14">
+        <v>2596</v>
+      </c>
+      <c r="W30" s="14">
+        <v>3409.75</v>
+      </c>
+      <c r="X30" s="14">
+        <v>2054.75</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>1517</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>3656.25</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>4313.25</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>15954.5</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>9823.5</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>27193.25</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>11081.25</v>
+      </c>
+      <c r="AF30" s="14">
+        <v>8548</v>
+      </c>
+      <c r="AG30" s="14">
+        <v>8531.5</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>4388.25</v>
+      </c>
+      <c r="AI30" s="14">
+        <v>7184.25</v>
+      </c>
+      <c r="AJ30" s="14">
+        <v>4950.75</v>
+      </c>
+      <c r="AK30" s="14">
+        <v>1773</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>1482.75</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>3807</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>847.25</v>
+      </c>
+      <c r="AO30" s="14">
+        <v>2667.75</v>
+      </c>
+      <c r="AP30" s="14">
+        <v>1338.5</v>
+      </c>
+      <c r="AQ30" s="14">
+        <v>1844.25</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>6582.5</v>
+      </c>
+      <c r="AS30" s="14">
+        <v>3518.5</v>
+      </c>
+      <c r="AT30" s="14">
+        <v>1537.5</v>
+      </c>
+      <c r="AU30" s="14">
+        <v>215355.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1903.2</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3473.7999999999993</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2108.7999999999997</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2446.9999999999995</v>
+      </c>
+      <c r="G31" s="14">
+        <v>6371.3999999999978</v>
+      </c>
+      <c r="H31" s="14">
+        <v>2753.7999999999993</v>
+      </c>
+      <c r="I31" s="14">
+        <v>4327.6000000000004</v>
+      </c>
+      <c r="J31" s="14">
+        <v>3797.8</v>
+      </c>
+      <c r="K31" s="14">
+        <v>4174.7999999999993</v>
+      </c>
+      <c r="L31" s="14">
+        <v>3018</v>
+      </c>
+      <c r="M31" s="14">
+        <v>4098.6000000000004</v>
+      </c>
+      <c r="N31" s="14">
+        <v>10122.199999999997</v>
+      </c>
+      <c r="O31" s="14">
+        <v>2449.2000000000007</v>
+      </c>
+      <c r="P31" s="14">
+        <v>2855.2000000000007</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>1814.8000000000004</v>
+      </c>
+      <c r="R31" s="14">
+        <v>1091.8000000000006</v>
+      </c>
+      <c r="S31" s="14">
+        <v>1508.9999999999998</v>
+      </c>
+      <c r="T31" s="14">
+        <v>3183.8000000000006</v>
+      </c>
+      <c r="U31" s="14">
+        <v>2184.6000000000004</v>
+      </c>
+      <c r="V31" s="14">
+        <v>1955.5999999999997</v>
+      </c>
+      <c r="W31" s="14">
+        <v>2859.3999999999996</v>
+      </c>
+      <c r="X31" s="14">
+        <v>1626.2</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>1255.7999999999995</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>2888.6</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>3683.4000000000005</v>
+      </c>
+      <c r="AB31" s="14">
+        <v>13099.999999999998</v>
+      </c>
+      <c r="AC31" s="14">
+        <v>7087.5999999999976</v>
+      </c>
+      <c r="AD31" s="14">
+        <v>22472.000000000007</v>
+      </c>
+      <c r="AE31" s="14">
+        <v>10244.800000000001</v>
+      </c>
+      <c r="AF31" s="14">
+        <v>6834.5999999999995</v>
+      </c>
+      <c r="AG31" s="14">
+        <v>6524.0000000000018</v>
+      </c>
+      <c r="AH31" s="14">
+        <v>3399.9999999999991</v>
+      </c>
+      <c r="AI31" s="14">
+        <v>5726.0000000000009</v>
+      </c>
+      <c r="AJ31" s="14">
+        <v>3730</v>
+      </c>
+      <c r="AK31" s="14">
+        <v>1380.0000000000002</v>
+      </c>
+      <c r="AL31" s="14">
+        <v>1295.1999999999998</v>
+      </c>
+      <c r="AM31" s="14">
+        <v>3968.3999999999996</v>
+      </c>
+      <c r="AN31" s="14">
+        <v>745.4</v>
+      </c>
+      <c r="AO31" s="14">
+        <v>2198</v>
+      </c>
+      <c r="AP31" s="14">
+        <v>962.4</v>
+      </c>
+      <c r="AQ31" s="14">
+        <v>1462.4</v>
+      </c>
+      <c r="AR31" s="14">
+        <v>7384.4000000000015</v>
+      </c>
+      <c r="AS31" s="14">
+        <v>2784.0000000000005</v>
+      </c>
+      <c r="AT31" s="14">
+        <v>1344.8000000000002</v>
+      </c>
+      <c r="AU31" s="14">
+        <v>180598.39999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3651.3636363636365</v>
+      </c>
+      <c r="D32" s="14">
+        <v>7403.0909090909108</v>
+      </c>
+      <c r="E32" s="14">
+        <v>4214.181818181818</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4094.2727272727279</v>
+      </c>
+      <c r="G32" s="14">
+        <v>11760.499999999998</v>
+      </c>
+      <c r="H32" s="14">
+        <v>5000.3181818181829</v>
+      </c>
+      <c r="I32" s="14">
+        <v>7901.590909090909</v>
+      </c>
+      <c r="J32" s="14">
+        <v>10570.227272727278</v>
+      </c>
+      <c r="K32" s="14">
+        <v>11644.181818181816</v>
+      </c>
+      <c r="L32" s="14">
+        <v>6173.2272727272712</v>
+      </c>
+      <c r="M32" s="14">
+        <v>7477.2272727272721</v>
+      </c>
+      <c r="N32" s="14">
+        <v>7721.6363636363612</v>
+      </c>
+      <c r="O32" s="14">
+        <v>5241.7272727272748</v>
+      </c>
+      <c r="P32" s="14">
+        <v>5367.3181818181829</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>5024.0000000000009</v>
+      </c>
+      <c r="R32" s="14">
+        <v>2998.5909090909095</v>
+      </c>
+      <c r="S32" s="14">
+        <v>4203.0909090909108</v>
+      </c>
+      <c r="T32" s="14">
+        <v>7525.2727272727279</v>
+      </c>
+      <c r="U32" s="14">
+        <v>5438.9999999999991</v>
+      </c>
+      <c r="V32" s="14">
+        <v>6099.8181818181838</v>
+      </c>
+      <c r="W32" s="14">
+        <v>5741.2272727272739</v>
+      </c>
+      <c r="X32" s="14">
+        <v>3228.3636363636365</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>2564.4090909090901</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>4908.863636363636</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>5844.0454545454531</v>
+      </c>
+      <c r="AB32" s="14">
+        <v>32651.909090909099</v>
+      </c>
+      <c r="AC32" s="14">
+        <v>34335.045454545456</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>28361.863636363632</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>20870.727272727283</v>
+      </c>
+      <c r="AF32" s="14">
+        <v>10805.454545454546</v>
+      </c>
+      <c r="AG32" s="14">
+        <v>11890.499999999998</v>
+      </c>
+      <c r="AH32" s="14">
+        <v>7133.3181818181811</v>
+      </c>
+      <c r="AI32" s="14">
+        <v>11910.772727272726</v>
+      </c>
+      <c r="AJ32" s="14">
+        <v>9062.5</v>
+      </c>
+      <c r="AK32" s="14">
+        <v>4083.9999999999995</v>
+      </c>
+      <c r="AL32" s="14">
+        <v>2533.5909090909086</v>
+      </c>
+      <c r="AM32" s="14">
+        <v>6301.5909090909081</v>
+      </c>
+      <c r="AN32" s="14">
+        <v>2453.6363636363626</v>
+      </c>
+      <c r="AO32" s="14">
+        <v>5084.545454545455</v>
+      </c>
+      <c r="AP32" s="14">
+        <v>3033.954545454546</v>
+      </c>
+      <c r="AQ32" s="14">
+        <v>3122.4545454545455</v>
+      </c>
+      <c r="AR32" s="14">
+        <v>5897.6363636363649</v>
+      </c>
+      <c r="AS32" s="14">
+        <v>5688.2272727272721</v>
+      </c>
+      <c r="AT32" s="14">
+        <v>2885.0454545454536</v>
+      </c>
+      <c r="AU32" s="14">
+        <v>359904.31818181812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1714.25</v>
+      </c>
+      <c r="D33" s="14">
+        <v>3109.25</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1952.25</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2055.25</v>
+      </c>
+      <c r="G33" s="14">
+        <v>7671</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2632.5</v>
+      </c>
+      <c r="I33" s="14">
+        <v>3685</v>
+      </c>
+      <c r="J33" s="14">
+        <v>3530</v>
+      </c>
+      <c r="K33" s="14">
+        <v>3660.75</v>
+      </c>
+      <c r="L33" s="14">
+        <v>2360.5</v>
+      </c>
+      <c r="M33" s="14">
+        <v>3850</v>
+      </c>
+      <c r="N33" s="14">
+        <v>5967.75</v>
+      </c>
+      <c r="O33" s="14">
+        <v>2076.5</v>
+      </c>
+      <c r="P33" s="14">
+        <v>2639.5</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>1839.75</v>
+      </c>
+      <c r="R33" s="14">
+        <v>1016.5</v>
+      </c>
+      <c r="S33" s="14">
+        <v>1342.25</v>
+      </c>
+      <c r="T33" s="14">
+        <v>2654.75</v>
+      </c>
+      <c r="U33" s="14">
+        <v>1748.5</v>
+      </c>
+      <c r="V33" s="14">
+        <v>1707.5</v>
+      </c>
+      <c r="W33" s="14">
+        <v>2332.75</v>
+      </c>
+      <c r="X33" s="14">
+        <v>1260.5</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>992.25</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>2728.75</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>3019</v>
+      </c>
+      <c r="AB33" s="14">
+        <v>8610.25</v>
+      </c>
+      <c r="AC33" s="14">
+        <v>6254.75</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>20148</v>
+      </c>
+      <c r="AE33" s="14">
+        <v>9145</v>
+      </c>
+      <c r="AF33" s="14">
+        <v>6354.5</v>
+      </c>
+      <c r="AG33" s="14">
+        <v>6146.5</v>
+      </c>
+      <c r="AH33" s="14">
+        <v>3080.75</v>
+      </c>
+      <c r="AI33" s="14">
+        <v>5386.25</v>
+      </c>
+      <c r="AJ33" s="14">
+        <v>3593</v>
+      </c>
+      <c r="AK33" s="14">
+        <v>1304</v>
+      </c>
+      <c r="AL33" s="14">
+        <v>1079.5</v>
+      </c>
+      <c r="AM33" s="14">
+        <v>2628.75</v>
+      </c>
+      <c r="AN33" s="14">
+        <v>545.5</v>
+      </c>
+      <c r="AO33" s="14">
+        <v>1899.25</v>
+      </c>
+      <c r="AP33" s="14">
+        <v>973</v>
+      </c>
+      <c r="AQ33" s="14">
+        <v>1279.75</v>
+      </c>
+      <c r="AR33" s="14">
+        <v>4532.25</v>
+      </c>
+      <c r="AS33" s="14">
+        <v>2445.5</v>
+      </c>
+      <c r="AT33" s="14">
+        <v>1111</v>
+      </c>
+      <c r="AU33" s="14">
+        <v>154064.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="14">
+        <v>1206.25</v>
+      </c>
+      <c r="D34" s="14">
+        <v>2004.5</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1287.25</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1427</v>
+      </c>
+      <c r="G34" s="14">
+        <v>4112.75</v>
+      </c>
+      <c r="H34" s="14">
+        <v>1831</v>
+      </c>
+      <c r="I34" s="14">
+        <v>2600</v>
+      </c>
+      <c r="J34" s="14">
+        <v>2225.5</v>
+      </c>
+      <c r="K34" s="14">
+        <v>2460</v>
+      </c>
+      <c r="L34" s="14">
+        <v>2103.5</v>
+      </c>
+      <c r="M34" s="14">
+        <v>2695</v>
+      </c>
+      <c r="N34" s="14">
+        <v>7101</v>
+      </c>
+      <c r="O34" s="14">
+        <v>1585.75</v>
+      </c>
+      <c r="P34" s="14">
+        <v>1955.5</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>1224.75</v>
+      </c>
+      <c r="R34" s="14">
+        <v>725.5</v>
+      </c>
+      <c r="S34" s="14">
+        <v>962.75</v>
+      </c>
+      <c r="T34" s="14">
+        <v>1972</v>
+      </c>
+      <c r="U34" s="14">
+        <v>1319.75</v>
+      </c>
+      <c r="V34" s="14">
+        <v>1238.25</v>
+      </c>
+      <c r="W34" s="14">
+        <v>1704.25</v>
+      </c>
+      <c r="X34" s="14">
+        <v>885.25</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>680.75</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>1833.5</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>2235.75</v>
+      </c>
+      <c r="AB34" s="14">
+        <v>6060.75</v>
+      </c>
+      <c r="AC34" s="14">
+        <v>4332.25</v>
+      </c>
+      <c r="AD34" s="14">
+        <v>14704.25</v>
+      </c>
+      <c r="AE34" s="14">
+        <v>7263</v>
+      </c>
+      <c r="AF34" s="14">
+        <v>4638</v>
+      </c>
+      <c r="AG34" s="14">
+        <v>4230.75</v>
+      </c>
+      <c r="AH34" s="14">
+        <v>2173.75</v>
+      </c>
+      <c r="AI34" s="14">
+        <v>4155.75</v>
+      </c>
+      <c r="AJ34" s="14">
+        <v>2383.75</v>
+      </c>
+      <c r="AK34" s="14">
+        <v>922</v>
+      </c>
+      <c r="AL34" s="14">
+        <v>778</v>
+      </c>
+      <c r="AM34" s="14">
+        <v>2192.25</v>
+      </c>
+      <c r="AN34" s="14">
+        <v>436.5</v>
+      </c>
+      <c r="AO34" s="14">
+        <v>1485.25</v>
+      </c>
+      <c r="AP34" s="14">
+        <v>642.75</v>
+      </c>
+      <c r="AQ34" s="14">
+        <v>969.5</v>
+      </c>
+      <c r="AR34" s="14">
+        <v>5046.25</v>
+      </c>
+      <c r="AS34" s="14">
+        <v>1790.25</v>
+      </c>
+      <c r="AT34" s="14">
+        <v>833</v>
+      </c>
+      <c r="AU34" s="14">
+        <v>114415.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="14">
+        <v>3937.0555555555566</v>
+      </c>
+      <c r="D35" s="14">
+        <v>7832.0555555555547</v>
+      </c>
+      <c r="E35" s="14">
+        <v>4656.8888888888905</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4523.9444444444453</v>
+      </c>
+      <c r="G35" s="14">
+        <v>13110.277777777779</v>
+      </c>
+      <c r="H35" s="14">
+        <v>5433.4444444444443</v>
+      </c>
+      <c r="I35" s="14">
+        <v>8557.3333333333321</v>
+      </c>
+      <c r="J35" s="14">
+        <v>11573.611111111111</v>
+      </c>
+      <c r="K35" s="14">
+        <v>12957.999999999998</v>
+      </c>
+      <c r="L35" s="14">
+        <v>6567.2222222222226</v>
+      </c>
+      <c r="M35" s="14">
+        <v>7999.5</v>
+      </c>
+      <c r="N35" s="14">
+        <v>6943.3333333333321</v>
+      </c>
+      <c r="O35" s="14">
+        <v>5651.1111111111131</v>
+      </c>
+      <c r="P35" s="14">
+        <v>5806.3888888888896</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>5341.7222222222208</v>
+      </c>
+      <c r="R35" s="14">
+        <v>3235.166666666667</v>
+      </c>
+      <c r="S35" s="14">
+        <v>4553.1666666666661</v>
+      </c>
+      <c r="T35" s="14">
+        <v>8121.5</v>
+      </c>
+      <c r="U35" s="14">
+        <v>5921.333333333333</v>
+      </c>
+      <c r="V35" s="14">
+        <v>6714.7777777777765</v>
+      </c>
+      <c r="W35" s="14">
+        <v>6339.5555555555557</v>
+      </c>
+      <c r="X35" s="14">
+        <v>3527.8333333333348</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>2780.6111111111104</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>5528.7777777777792</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>6544.9444444444453</v>
+      </c>
+      <c r="AB35" s="14">
+        <v>35968.222222222234</v>
+      </c>
+      <c r="AC35" s="14">
+        <v>38051.722222222226</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>33004.722222222219</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>23122.722222222219</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>11968.388888888889</v>
+      </c>
+      <c r="AG35" s="14">
+        <v>13219.444444444443</v>
+      </c>
+      <c r="AH35" s="14">
+        <v>7910.5</v>
+      </c>
+      <c r="AI35" s="14">
+        <v>12898.111111111108</v>
+      </c>
+      <c r="AJ35" s="14">
+        <v>9560.6111111111113</v>
+      </c>
+      <c r="AK35" s="14">
+        <v>4463.5555555555557</v>
+      </c>
+      <c r="AL35" s="14">
+        <v>2762.5000000000005</v>
+      </c>
+      <c r="AM35" s="14">
+        <v>6815.6111111111122</v>
+      </c>
+      <c r="AN35" s="14">
+        <v>2703.2222222222222</v>
+      </c>
+      <c r="AO35" s="14">
+        <v>5650.8888888888887</v>
+      </c>
+      <c r="AP35" s="14">
+        <v>3349.3333333333339</v>
+      </c>
+      <c r="AQ35" s="14">
+        <v>3501.3333333333339</v>
+      </c>
+      <c r="AR35" s="14">
+        <v>6200.6666666666679</v>
+      </c>
+      <c r="AS35" s="14">
+        <v>6414.8888888888896</v>
+      </c>
+      <c r="AT35" s="14">
+        <v>3171.2777777777783</v>
+      </c>
+      <c r="AU35" s="14">
+        <v>394897.27777777781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
+      <c r="B36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2284.7999999999993</v>
+      </c>
+      <c r="D36" s="14">
+        <v>4132.0000000000009</v>
+      </c>
+      <c r="E36" s="14">
+        <v>2546.4000000000005</v>
+      </c>
+      <c r="F36" s="14">
+        <v>2759.7999999999997</v>
+      </c>
+      <c r="G36" s="14">
+        <v>10969.199999999999</v>
+      </c>
+      <c r="H36" s="14">
+        <v>3324.0000000000005</v>
+      </c>
+      <c r="I36" s="14">
+        <v>4681.0000000000009</v>
+      </c>
+      <c r="J36" s="14">
+        <v>4279.6000000000004</v>
+      </c>
+      <c r="K36" s="14">
+        <v>4735.8000000000011</v>
+      </c>
+      <c r="L36" s="14">
+        <v>2952.6000000000008</v>
+      </c>
+      <c r="M36" s="14">
+        <v>5493.2000000000016</v>
+      </c>
+      <c r="N36" s="14">
+        <v>6032.6000000000013</v>
+      </c>
+      <c r="O36" s="14">
+        <v>2707.2000000000003</v>
+      </c>
+      <c r="P36" s="14">
+        <v>3422.6</v>
+      </c>
+      <c r="Q36" s="14">
+        <v>2370</v>
+      </c>
+      <c r="R36" s="14">
+        <v>1385.8000000000006</v>
+      </c>
+      <c r="S36" s="14">
+        <v>1851.8000000000004</v>
+      </c>
+      <c r="T36" s="14">
+        <v>3565.6000000000004</v>
+      </c>
+      <c r="U36" s="14">
+        <v>2375.8000000000002</v>
+      </c>
+      <c r="V36" s="14">
+        <v>2279.6</v>
+      </c>
+      <c r="W36" s="14">
+        <v>3050.9999999999995</v>
+      </c>
+      <c r="X36" s="14">
+        <v>1713</v>
+      </c>
+      <c r="Y36" s="14">
+        <v>1382.7999999999997</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>3629.1999999999989</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>4115.3999999999996</v>
+      </c>
+      <c r="AB36" s="14">
+        <v>11782.2</v>
+      </c>
+      <c r="AC36" s="14">
+        <v>8676</v>
+      </c>
+      <c r="AD36" s="14">
+        <v>29514.400000000005</v>
+      </c>
+      <c r="AE36" s="14">
+        <v>10791.999999999998</v>
+      </c>
+      <c r="AF36" s="14">
+        <v>8551.4</v>
+      </c>
+      <c r="AG36" s="14">
+        <v>9238.7999999999993</v>
+      </c>
+      <c r="AH36" s="14">
+        <v>4387.7999999999993</v>
+      </c>
+      <c r="AI36" s="14">
+        <v>6973.2000000000016</v>
+      </c>
+      <c r="AJ36" s="14">
+        <v>4916.0000000000009</v>
+      </c>
+      <c r="AK36" s="14">
+        <v>1663.6</v>
+      </c>
+      <c r="AL36" s="14">
+        <v>1413.4000000000003</v>
+      </c>
+      <c r="AM36" s="14">
+        <v>3443.7999999999997</v>
+      </c>
+      <c r="AN36" s="14">
+        <v>783.60000000000014</v>
+      </c>
+      <c r="AO36" s="14">
+        <v>2556.6000000000004</v>
+      </c>
+      <c r="AP36" s="14">
+        <v>1297.4000000000005</v>
+      </c>
+      <c r="AQ36" s="14">
+        <v>1747.6</v>
+      </c>
+      <c r="AR36" s="14">
+        <v>5816.6</v>
+      </c>
+      <c r="AS36" s="14">
+        <v>3344.2000000000007</v>
+      </c>
+      <c r="AT36" s="14">
+        <v>1515.8000000000004</v>
+      </c>
+      <c r="AU36" s="14">
+        <v>206455.19999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47">
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1603.25</v>
+      </c>
+      <c r="D37" s="14">
+        <v>2597</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1725.5</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1818.25</v>
+      </c>
+      <c r="G37" s="14">
+        <v>5419.5</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2275.75</v>
+      </c>
+      <c r="I37" s="14">
+        <v>3323.25</v>
+      </c>
+      <c r="J37" s="14">
+        <v>3183.25</v>
+      </c>
+      <c r="K37" s="14">
+        <v>3310.5</v>
+      </c>
+      <c r="L37" s="14">
+        <v>2575.5</v>
+      </c>
+      <c r="M37" s="14">
+        <v>3602</v>
+      </c>
+      <c r="N37" s="14">
+        <v>8283.5</v>
+      </c>
+      <c r="O37" s="14">
+        <v>2085.25</v>
+      </c>
+      <c r="P37" s="14">
+        <v>2544</v>
+      </c>
+      <c r="Q37" s="14">
+        <v>1670</v>
+      </c>
+      <c r="R37" s="14">
+        <v>968</v>
+      </c>
+      <c r="S37" s="14">
+        <v>1255.5</v>
+      </c>
+      <c r="T37" s="14">
+        <v>2654.75</v>
+      </c>
+      <c r="U37" s="14">
+        <v>1648.25</v>
+      </c>
+      <c r="V37" s="14">
+        <v>1528</v>
+      </c>
+      <c r="W37" s="14">
+        <v>2138.5</v>
+      </c>
+      <c r="X37" s="14">
+        <v>1089.25</v>
+      </c>
+      <c r="Y37" s="14">
+        <v>827</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>2234.5</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>2826.75</v>
+      </c>
+      <c r="AB37" s="14">
+        <v>8108.5</v>
+      </c>
+      <c r="AC37" s="14">
+        <v>5545.5</v>
+      </c>
+      <c r="AD37" s="14">
+        <v>19995</v>
+      </c>
+      <c r="AE37" s="14">
+        <v>8023</v>
+      </c>
+      <c r="AF37" s="14">
+        <v>6016.5</v>
+      </c>
+      <c r="AG37" s="14">
+        <v>5759.25</v>
+      </c>
+      <c r="AH37" s="14">
+        <v>2934</v>
+      </c>
+      <c r="AI37" s="14">
+        <v>5027.25</v>
+      </c>
+      <c r="AJ37" s="14">
+        <v>3117.25</v>
+      </c>
+      <c r="AK37" s="14">
+        <v>1153.5</v>
+      </c>
+      <c r="AL37" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="AM37" s="14">
+        <v>2905</v>
+      </c>
+      <c r="AN37" s="14">
+        <v>552.25</v>
+      </c>
+      <c r="AO37" s="14">
+        <v>1886.25</v>
+      </c>
+      <c r="AP37" s="14">
+        <v>800.5</v>
+      </c>
+      <c r="AQ37" s="14">
+        <v>1225.75</v>
+      </c>
+      <c r="AR37" s="14">
+        <v>6211.25</v>
+      </c>
+      <c r="AS37" s="14">
+        <v>2162</v>
+      </c>
+      <c r="AT37" s="14">
+        <v>1123</v>
+      </c>
+      <c r="AU37" s="14">
+        <v>146805.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3852.1578947368416</v>
+      </c>
+      <c r="D38" s="14">
+        <v>7701.6315789473656</v>
+      </c>
+      <c r="E38" s="14">
+        <v>4437.0526315789466</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4248.5263157894733</v>
+      </c>
+      <c r="G38" s="14">
+        <v>10986.736842105262</v>
+      </c>
+      <c r="H38" s="14">
+        <v>5071.3684210526317</v>
+      </c>
+      <c r="I38" s="14">
+        <v>8039.6315789473674</v>
+      </c>
+      <c r="J38" s="14">
+        <v>10656.578947368422</v>
+      </c>
+      <c r="K38" s="14">
+        <v>12160.263157894737</v>
+      </c>
+      <c r="L38" s="14">
+        <v>5846.0526315789475</v>
+      </c>
+      <c r="M38" s="14">
+        <v>7782.2631578947357</v>
+      </c>
+      <c r="N38" s="14">
+        <v>7197.4736842105276</v>
+      </c>
+      <c r="O38" s="14">
+        <v>5420.6315789473683</v>
+      </c>
+      <c r="P38" s="14">
+        <v>5654.6842105263158</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>4791.315789473686</v>
+      </c>
+      <c r="R38" s="14">
+        <v>3072.1578947368416</v>
+      </c>
+      <c r="S38" s="14">
+        <v>4285.7368421052643</v>
+      </c>
+      <c r="T38" s="14">
+        <v>7723</v>
+      </c>
+      <c r="U38" s="14">
+        <v>5674.1052631578959</v>
+      </c>
+      <c r="V38" s="14">
+        <v>6328.8947368421032</v>
+      </c>
+      <c r="W38" s="14">
+        <v>6222.105263157895</v>
+      </c>
+      <c r="X38" s="14">
+        <v>3452.3157894736851</v>
+      </c>
+      <c r="Y38" s="14">
+        <v>2704.5789473684213</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>5179.6315789473674</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>6442.789473684209</v>
+      </c>
+      <c r="AB38" s="14">
+        <v>34213.052631578947</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>35108.105263157893</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>35287.42105263158</v>
+      </c>
+      <c r="AE38" s="14">
+        <v>21425.105263157904</v>
+      </c>
+      <c r="AF38" s="14">
+        <v>11338.315789473685</v>
+      </c>
+      <c r="AG38" s="14">
+        <v>12424.157894736843</v>
+      </c>
+      <c r="AH38" s="14">
+        <v>7581.8421052631575</v>
+      </c>
+      <c r="AI38" s="14">
+        <v>11951.473684210523</v>
+      </c>
+      <c r="AJ38" s="14">
+        <v>9082.5789473684199</v>
+      </c>
+      <c r="AK38" s="14">
+        <v>4250.6842105263158</v>
+      </c>
+      <c r="AL38" s="14">
+        <v>2707.9999999999995</v>
+      </c>
+      <c r="AM38" s="14">
+        <v>6758.8421052631593</v>
+      </c>
+      <c r="AN38" s="14">
+        <v>2540.5263157894733</v>
+      </c>
+      <c r="AO38" s="14">
+        <v>5502.21052631579</v>
+      </c>
+      <c r="AP38" s="14">
+        <v>3199.3157894736842</v>
+      </c>
+      <c r="AQ38" s="14">
+        <v>3469.3684210526317</v>
+      </c>
+      <c r="AR38" s="14">
+        <v>6774.4736842105267</v>
+      </c>
+      <c r="AS38" s="14">
+        <v>6124.4210526315774</v>
+      </c>
+      <c r="AT38" s="14">
+        <v>3220.7894736842113</v>
+      </c>
+      <c r="AU38" s="14">
+        <v>377892.36842105264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47">
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="14">
+        <v>2179.25</v>
+      </c>
+      <c r="D39" s="14">
+        <v>4024.75</v>
+      </c>
+      <c r="E39" s="14">
+        <v>2543.75</v>
+      </c>
+      <c r="F39" s="14">
+        <v>2685.25</v>
+      </c>
+      <c r="G39" s="14">
+        <v>7558</v>
+      </c>
+      <c r="H39" s="14">
+        <v>3100.5</v>
+      </c>
+      <c r="I39" s="14">
+        <v>4541.5</v>
+      </c>
+      <c r="J39" s="14">
+        <v>4377.25</v>
+      </c>
+      <c r="K39" s="14">
+        <v>4715.5</v>
+      </c>
+      <c r="L39" s="14">
+        <v>2990</v>
+      </c>
+      <c r="M39" s="14">
+        <v>5004.25</v>
+      </c>
+      <c r="N39" s="14">
+        <v>5354.25</v>
+      </c>
+      <c r="O39" s="14">
+        <v>2657</v>
+      </c>
+      <c r="P39" s="14">
+        <v>3407.5</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>2227.75</v>
+      </c>
+      <c r="R39" s="14">
+        <v>1362.5</v>
+      </c>
+      <c r="S39" s="14">
+        <v>1827.75</v>
+      </c>
+      <c r="T39" s="14">
+        <v>3384.25</v>
+      </c>
+      <c r="U39" s="14">
+        <v>2418</v>
+      </c>
+      <c r="V39" s="14">
+        <v>2343</v>
+      </c>
+      <c r="W39" s="14">
+        <v>3431.5</v>
+      </c>
+      <c r="X39" s="14">
+        <v>1897.5</v>
+      </c>
+      <c r="Y39" s="14">
+        <v>1484.75</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>3540</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>4427.75</v>
+      </c>
+      <c r="AB39" s="14">
+        <v>11404.25</v>
+      </c>
+      <c r="AC39" s="14">
+        <v>8842</v>
+      </c>
+      <c r="AD39" s="14">
+        <v>35128.75</v>
+      </c>
+      <c r="AE39" s="14">
+        <v>11728.25</v>
+      </c>
+      <c r="AF39" s="14">
+        <v>8235.5</v>
+      </c>
+      <c r="AG39" s="14">
+        <v>8307.25</v>
+      </c>
+      <c r="AH39" s="14">
+        <v>4675.25</v>
+      </c>
+      <c r="AI39" s="14">
+        <v>7069.75</v>
+      </c>
+      <c r="AJ39" s="14">
+        <v>5072.75</v>
+      </c>
+      <c r="AK39" s="14">
+        <v>1766</v>
+      </c>
+      <c r="AL39" s="14">
+        <v>1551.5</v>
+      </c>
+      <c r="AM39" s="14">
+        <v>3848.75</v>
+      </c>
+      <c r="AN39" s="14">
+        <v>798.5</v>
+      </c>
+      <c r="AO39" s="14">
+        <v>2492.25</v>
+      </c>
+      <c r="AP39" s="14">
+        <v>1368</v>
+      </c>
+      <c r="AQ39" s="14">
+        <v>1939.75</v>
+      </c>
+      <c r="AR39" s="14">
+        <v>5980.5</v>
+      </c>
+      <c r="AS39" s="14">
+        <v>3596.5</v>
+      </c>
+      <c r="AT39" s="14">
+        <v>1613</v>
+      </c>
+      <c r="AU39" s="14">
+        <v>208902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47">
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1703.6</v>
+      </c>
+      <c r="D40" s="14">
+        <v>2668.5999999999995</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1787.8000000000004</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1828.1999999999998</v>
+      </c>
+      <c r="G40" s="14">
+        <v>4485</v>
+      </c>
+      <c r="H40" s="14">
+        <v>2174.8000000000011</v>
+      </c>
+      <c r="I40" s="14">
+        <v>3161.599999999999</v>
+      </c>
+      <c r="J40" s="14">
+        <v>2777.7999999999997</v>
+      </c>
+      <c r="K40" s="14">
+        <v>3059.8</v>
+      </c>
+      <c r="L40" s="14">
+        <v>2475.400000000001</v>
+      </c>
+      <c r="M40" s="14">
+        <v>3609</v>
+      </c>
+      <c r="N40" s="14">
+        <v>7832.5999999999995</v>
+      </c>
+      <c r="O40" s="14">
+        <v>2081.7999999999997</v>
+      </c>
+      <c r="P40" s="14">
+        <v>2591.4</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>1571.2</v>
+      </c>
+      <c r="R40" s="14">
+        <v>1017.6000000000003</v>
+      </c>
+      <c r="S40" s="14">
+        <v>1276.7999999999997</v>
+      </c>
+      <c r="T40" s="14">
+        <v>2606.4000000000005</v>
+      </c>
+      <c r="U40" s="14">
+        <v>1790.4</v>
+      </c>
+      <c r="V40" s="14">
+        <v>1617.0000000000002</v>
+      </c>
+      <c r="W40" s="14">
+        <v>2394.6</v>
+      </c>
+      <c r="X40" s="14">
+        <v>1304</v>
+      </c>
+      <c r="Y40" s="14">
+        <v>974.40000000000009</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>2299.1999999999998</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>3028.7999999999993</v>
+      </c>
+      <c r="AB40" s="14">
+        <v>7552.3999999999987</v>
+      </c>
+      <c r="AC40" s="14">
+        <v>5513.6000000000013</v>
+      </c>
+      <c r="AD40" s="14">
+        <v>24396</v>
+      </c>
+      <c r="AE40" s="14">
+        <v>8078.3999999999978</v>
+      </c>
+      <c r="AF40" s="14">
+        <v>5690.7999999999993</v>
+      </c>
+      <c r="AG40" s="14">
+        <v>5546.2</v>
+      </c>
+      <c r="AH40" s="14">
+        <v>3239.3999999999992</v>
+      </c>
+      <c r="AI40" s="14">
+        <v>5263.7999999999993</v>
+      </c>
+      <c r="AJ40" s="14">
+        <v>3311</v>
+      </c>
+      <c r="AK40" s="14">
+        <v>1202.3999999999999</v>
+      </c>
+      <c r="AL40" s="14">
+        <v>1167.5999999999999</v>
+      </c>
+      <c r="AM40" s="14">
+        <v>3231.4000000000005</v>
+      </c>
+      <c r="AN40" s="14">
+        <v>607.00000000000034</v>
+      </c>
+      <c r="AO40" s="14">
+        <v>1995.7999999999997</v>
+      </c>
+      <c r="AP40" s="14">
+        <v>886</v>
+      </c>
+      <c r="AQ40" s="14">
+        <v>1383.2000000000003</v>
+      </c>
+      <c r="AR40" s="14">
+        <v>7749.2000000000007</v>
+      </c>
+      <c r="AS40" s="14">
+        <v>2343</v>
+      </c>
+      <c r="AT40" s="14">
+        <v>1300.3999999999999</v>
+      </c>
+      <c r="AU40" s="14">
+        <v>152575.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47">
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1">
+        <v>19</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>24</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47">
+      <c r="C43" s="27">
+        <f>SUM(C5:C40)</f>
+        <v>92379.789709121294</v>
+      </c>
+      <c r="D43" s="27">
+        <f t="shared" ref="D43:AT43" si="0">SUM(D5:D40)</f>
+        <v>172010.1031176426</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="0"/>
+        <v>104808.940461001</v>
+      </c>
+      <c r="F43" s="27">
+        <f t="shared" si="0"/>
+        <v>107672.30560871876</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" si="0"/>
+        <v>320821.3551074657</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="0"/>
+        <v>129858.51901724006</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" si="0"/>
+        <v>201976.64976076558</v>
+      </c>
+      <c r="J43" s="27">
+        <f t="shared" si="0"/>
+        <v>220108.17483861168</v>
+      </c>
+      <c r="K43" s="27">
+        <f t="shared" si="0"/>
+        <v>250711.84587605376</v>
+      </c>
+      <c r="L43" s="27">
+        <f t="shared" si="0"/>
+        <v>140843.50838080046</v>
+      </c>
+      <c r="M43" s="27">
+        <f t="shared" si="0"/>
+        <v>195153.33380041015</v>
+      </c>
+      <c r="N43" s="27">
+        <f t="shared" si="0"/>
+        <v>232001.96956026432</v>
+      </c>
+      <c r="O43" s="27">
+        <f t="shared" si="0"/>
+        <v>120462.66147565887</v>
+      </c>
+      <c r="P43" s="27">
+        <f t="shared" si="0"/>
+        <v>135928.8960089618</v>
+      </c>
+      <c r="Q43" s="27">
+        <f t="shared" si="0"/>
+        <v>106638.16142249563</v>
+      </c>
+      <c r="R43" s="27">
+        <f t="shared" si="0"/>
+        <v>66461.433367509686</v>
+      </c>
+      <c r="S43" s="27">
+        <f t="shared" si="0"/>
+        <v>89604.351856915033</v>
+      </c>
+      <c r="T43" s="27">
+        <f t="shared" si="0"/>
+        <v>166349.11051492367</v>
+      </c>
+      <c r="U43" s="27">
+        <f t="shared" si="0"/>
+        <v>119320.64028252449</v>
+      </c>
+      <c r="V43" s="27">
+        <f t="shared" si="0"/>
+        <v>125602.58379281539</v>
+      </c>
+      <c r="W43" s="27">
+        <f t="shared" si="0"/>
+        <v>139738.33143844461</v>
+      </c>
+      <c r="X43" s="27">
+        <f t="shared" si="0"/>
+        <v>76099.763864205976</v>
+      </c>
+      <c r="Y43" s="27">
+        <f t="shared" si="0"/>
+        <v>59155.215554036615</v>
+      </c>
+      <c r="Z43" s="27">
+        <f t="shared" si="0"/>
+        <v>132531.51524644947</v>
+      </c>
+      <c r="AA43" s="27">
+        <f t="shared" si="0"/>
+        <v>157235.28359914938</v>
+      </c>
+      <c r="AB43" s="27">
+        <f t="shared" si="0"/>
+        <v>695958.3721196932</v>
+      </c>
+      <c r="AC43" s="27">
+        <f t="shared" si="0"/>
+        <v>616659.25617072976</v>
+      </c>
+      <c r="AD43" s="27">
+        <f t="shared" si="0"/>
+        <v>950402.99589504057</v>
+      </c>
+      <c r="AE43" s="27">
+        <f t="shared" si="0"/>
+        <v>508878.78714589513</v>
+      </c>
+      <c r="AF43" s="27">
+        <f t="shared" si="0"/>
+        <v>319102.96946533007</v>
+      </c>
+      <c r="AG43" s="27">
+        <f t="shared" si="0"/>
+        <v>326549.93911293388</v>
+      </c>
+      <c r="AH43" s="27">
+        <f t="shared" si="0"/>
+        <v>179469.68220551373</v>
+      </c>
+      <c r="AI43" s="27">
+        <f t="shared" si="0"/>
+        <v>293181.16311612359</v>
+      </c>
+      <c r="AJ43" s="27">
+        <f t="shared" si="0"/>
+        <v>201292.51007442852</v>
+      </c>
+      <c r="AK43" s="27">
+        <f t="shared" si="0"/>
+        <v>86183.191133135857</v>
+      </c>
+      <c r="AL43" s="27">
+        <f t="shared" si="0"/>
+        <v>61989.951389838228</v>
+      </c>
+      <c r="AM43" s="27">
+        <f t="shared" si="0"/>
+        <v>160064.13676615778</v>
+      </c>
+      <c r="AN43" s="27">
+        <f t="shared" si="0"/>
+        <v>47183.566013518641</v>
+      </c>
+      <c r="AO43" s="27">
+        <f t="shared" si="0"/>
+        <v>118399.89741019215</v>
+      </c>
+      <c r="AP43" s="27">
+        <f t="shared" si="0"/>
+        <v>64170.541079972667</v>
+      </c>
+      <c r="AQ43" s="27">
+        <f t="shared" si="0"/>
+        <v>77826.972715880605</v>
+      </c>
+      <c r="AR43" s="27">
+        <f t="shared" si="0"/>
+        <v>218508.72501708817</v>
+      </c>
+      <c r="AS43" s="27">
+        <f t="shared" si="0"/>
+        <v>142414.61620718462</v>
+      </c>
+      <c r="AT43" s="27">
+        <f t="shared" si="0"/>
+        <v>66831.015474291795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AR49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:44">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2">
+        <v>16</v>
+      </c>
+      <c r="AE2">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3">
+        <v>92379.789709121294</v>
+      </c>
+      <c r="B3">
+        <v>172010.1031176426</v>
+      </c>
+      <c r="C3">
+        <v>104808.940461001</v>
+      </c>
+      <c r="D3">
+        <v>107672.30560871876</v>
+      </c>
+      <c r="E3">
+        <v>320821.3551074657</v>
+      </c>
+      <c r="F3">
+        <v>129858.51901724006</v>
+      </c>
+      <c r="G3">
+        <v>201976.64976076558</v>
+      </c>
+      <c r="H3">
+        <v>220108.17483861168</v>
+      </c>
+      <c r="I3">
+        <v>250711.84587605376</v>
+      </c>
+      <c r="J3">
+        <v>140843.50838080046</v>
+      </c>
+      <c r="K3">
+        <v>195153.33380041015</v>
+      </c>
+      <c r="L3">
+        <v>232001.96956026432</v>
+      </c>
+      <c r="M3">
+        <v>120462.66147565887</v>
+      </c>
+      <c r="N3">
+        <v>135928.8960089618</v>
+      </c>
+      <c r="O3">
+        <v>106638.16142249563</v>
+      </c>
+      <c r="P3">
+        <v>66461.433367509686</v>
+      </c>
+      <c r="Q3">
+        <v>89604.351856915033</v>
+      </c>
+      <c r="R3">
+        <v>166349.11051492367</v>
+      </c>
+      <c r="S3">
+        <v>119320.64028252449</v>
+      </c>
+      <c r="T3">
+        <v>125602.58379281539</v>
+      </c>
+      <c r="U3">
+        <v>139738.33143844461</v>
+      </c>
+      <c r="V3">
+        <v>76099.763864205976</v>
+      </c>
+      <c r="W3">
+        <v>59155.215554036615</v>
+      </c>
+      <c r="X3">
+        <v>132531.51524644947</v>
+      </c>
+      <c r="Y3">
+        <v>157235.28359914938</v>
+      </c>
+      <c r="Z3">
+        <v>695958.3721196932</v>
+      </c>
+      <c r="AA3">
+        <v>616659.25617072976</v>
+      </c>
+      <c r="AB3">
+        <v>950402.99589504057</v>
+      </c>
+      <c r="AC3">
+        <v>508878.78714589513</v>
+      </c>
+      <c r="AD3">
+        <v>319102.96946533007</v>
+      </c>
+      <c r="AE3">
+        <v>326549.93911293388</v>
+      </c>
+      <c r="AF3">
+        <v>179469.68220551373</v>
+      </c>
+      <c r="AG3">
+        <v>293181.16311612359</v>
+      </c>
+      <c r="AH3">
+        <v>201292.51007442852</v>
+      </c>
+      <c r="AI3">
+        <v>86183.191133135857</v>
+      </c>
+      <c r="AJ3">
+        <v>61989.951389838228</v>
+      </c>
+      <c r="AK3">
+        <v>160064.13676615778</v>
+      </c>
+      <c r="AL3">
+        <v>47183.566013518641</v>
+      </c>
+      <c r="AM3">
+        <v>118399.89741019215</v>
+      </c>
+      <c r="AN3">
+        <v>64170.541079972667</v>
+      </c>
+      <c r="AO3">
+        <v>77826.972715880605</v>
+      </c>
+      <c r="AP3">
+        <v>218508.72501708817</v>
+      </c>
+      <c r="AQ3">
+        <v>142414.61620718462</v>
+      </c>
+      <c r="AR3">
+        <v>66831.015474291795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>92379.789709121294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(D6,$I$5:$J$48,2,FALSE)</f>
+        <v>RICH</v>
+      </c>
+      <c r="F6" s="4">
+        <v>92379.789709121294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>172010.1031176426</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" ref="E7:E49" si="0">VLOOKUP(D7,$I$5:$J$48,2,FALSE)</f>
+        <v>DELN</v>
+      </c>
+      <c r="F7" s="4">
+        <v>172010.1031176426</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>104808.940461001</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>PLZA</v>
+      </c>
+      <c r="F8" s="4">
+        <v>104808.940461001</v>
+      </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>107672.30560871876</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>NBRK</v>
+      </c>
+      <c r="F9" s="4">
+        <v>107672.30560871876</v>
+      </c>
+      <c r="H9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>320821.3551074657</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>DBRK</v>
+      </c>
+      <c r="F10" s="4">
+        <v>320821.3551074657</v>
+      </c>
+      <c r="H10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>129858.51901724006</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>ASHB</v>
+      </c>
+      <c r="F11" s="4">
+        <v>129858.51901724006</v>
+      </c>
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>201976.64976076558</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>MCAR</v>
+      </c>
+      <c r="F12" s="4">
+        <v>201976.64976076558</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>220108.17483861168</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>19TH</v>
+      </c>
+      <c r="F13" s="4">
+        <v>220108.17483861168</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="1">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>250711.84587605376</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>12TH</v>
+      </c>
+      <c r="F14" s="4">
+        <v>250711.84587605376</v>
+      </c>
+      <c r="H14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="1">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>140843.50838080046</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>LAKE</v>
+      </c>
+      <c r="F15" s="4">
+        <v>140843.50838080046</v>
+      </c>
+      <c r="H15" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>195153.33380041015</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>FTVL</v>
+      </c>
+      <c r="F16" s="4">
+        <v>195153.33380041015</v>
+      </c>
+      <c r="H16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>232001.96956026432</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>COLS</v>
+      </c>
+      <c r="F17" s="4">
+        <v>232001.96956026432</v>
+      </c>
+      <c r="H17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>120462.66147565887</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>SANL</v>
+      </c>
+      <c r="F18" s="4">
+        <v>120462.66147565887</v>
+      </c>
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>135928.8960089618</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>BAYF</v>
+      </c>
+      <c r="F19" s="4">
+        <v>135928.8960089618</v>
+      </c>
+      <c r="H19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>106638.16142249563</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>HAYW</v>
+      </c>
+      <c r="F20" s="4">
+        <v>106638.16142249563</v>
+      </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="1">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>66461.433367509686</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>SHAY</v>
+      </c>
+      <c r="F21" s="4">
+        <v>66461.433367509686</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="1">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>89604.351856915033</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>UCTY</v>
+      </c>
+      <c r="F22" s="4">
+        <v>89604.351856915033</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>166349.11051492367</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>FRMT</v>
+      </c>
+      <c r="F23" s="4">
+        <v>166349.11051492367</v>
+      </c>
+      <c r="H23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>119320.64028252449</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>CONC</v>
+      </c>
+      <c r="F24" s="4">
+        <v>119320.64028252449</v>
+      </c>
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>125602.58379281539</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>PHIL</v>
+      </c>
+      <c r="F25" s="4">
+        <v>125602.58379281539</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>139738.33143844461</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>WCRK</v>
+      </c>
+      <c r="F26" s="4">
+        <v>139738.33143844461</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>76099.763864205976</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>LAFY</v>
+      </c>
+      <c r="F27" s="4">
+        <v>76099.763864205976</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>59155.215554036615</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>ORIN</v>
+      </c>
+      <c r="F28" s="4">
+        <v>59155.215554036615</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>132531.51524644947</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>ROCK</v>
+      </c>
+      <c r="F29" s="4">
+        <v>132531.51524644947</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>157235.28359914938</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>WOAK</v>
+      </c>
+      <c r="F30" s="4">
+        <v>157235.28359914938</v>
+      </c>
+      <c r="H30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>695958.3721196932</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>EMBR</v>
+      </c>
+      <c r="F31" s="4">
+        <v>695958.3721196932</v>
+      </c>
+      <c r="H31" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>616659.25617072976</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>MONT</v>
+      </c>
+      <c r="F32" s="4">
+        <v>616659.25617072976</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>950402.99589504057</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>POWL</v>
+      </c>
+      <c r="F33" s="4">
+        <v>950402.99589504057</v>
+      </c>
+      <c r="H33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>508878.78714589513</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>CIVC</v>
+      </c>
+      <c r="F34" s="4">
+        <v>508878.78714589513</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>319102.96946533007</v>
+      </c>
+      <c r="D35">
+        <v>16</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>16TH</v>
+      </c>
+      <c r="F35" s="4">
+        <v>319102.96946533007</v>
+      </c>
+      <c r="H35" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>326549.93911293388</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>24TH</v>
+      </c>
+      <c r="F36" s="4">
+        <v>326549.93911293388</v>
+      </c>
+      <c r="H36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>179469.68220551373</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>GLEN</v>
+      </c>
+      <c r="F37" s="4">
+        <v>179469.68220551373</v>
+      </c>
+      <c r="H37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>293181.16311612359</v>
+      </c>
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>BALB</v>
+      </c>
+      <c r="F38" s="4">
+        <v>293181.16311612359</v>
+      </c>
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>201292.51007442852</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>DALY</v>
+      </c>
+      <c r="F39" s="4">
+        <v>201292.51007442852</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>86183.191133135857</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>COLM</v>
+      </c>
+      <c r="F40" s="4">
+        <v>86183.191133135857</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>61989.951389838228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>CAST</v>
+      </c>
+      <c r="F41" s="4">
+        <v>61989.951389838228</v>
+      </c>
+      <c r="H41" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>160064.13676615778</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>DUBL</v>
+      </c>
+      <c r="F42" s="4">
+        <v>160064.13676615778</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>47183.566013518641</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>NCON</v>
+      </c>
+      <c r="F43" s="4">
+        <v>47183.566013518641</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>118399.89741019215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>PITT</v>
+      </c>
+      <c r="F44" s="4">
+        <v>118399.89741019215</v>
+      </c>
+      <c r="H44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>64170.541079972667</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>SSAN</v>
+      </c>
+      <c r="F45" s="4">
+        <v>64170.541079972667</v>
+      </c>
+      <c r="H45" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>77826.972715880605</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>SBRN</v>
+      </c>
+      <c r="F46" s="4">
+        <v>77826.972715880605</v>
+      </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>218508.72501708817</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>SFIA</v>
+      </c>
+      <c r="F47" s="4">
+        <v>218508.72501708817</v>
+      </c>
+      <c r="H47" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>142414.61620718462</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>MLBR</v>
+      </c>
+      <c r="F48" s="4">
+        <v>142414.61620718462</v>
+      </c>
+      <c r="H48" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49">
+        <v>66831.015474291795</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>WDUB</v>
+      </c>
+      <c r="F49" s="4">
+        <v>66831.015474291795</v>
       </c>
     </row>
   </sheetData>
